--- a/src/DatosFelicidad.xlsx
+++ b/src/DatosFelicidad.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David.rueda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B7B85B-9513-4E57-B4C7-05B6E31561BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F325A97E-79A9-4FB7-85A1-43CD098672AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2070A7CA-CB42-4E05-9E44-C66655EDD7E3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2070A7CA-CB42-4E05-9E44-C66655EDD7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="tidyData" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tidyData!$A$1:$K$155</definedName>
+  </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,2004 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>Países</t>
-  </si>
-  <si>
-    <t>6,322</t>
-  </si>
-  <si>
-    <t>6,672</t>
-  </si>
-  <si>
-    <t>6,883</t>
-  </si>
-  <si>
-    <t>6,764</t>
-  </si>
-  <si>
-    <t>6,021</t>
-  </si>
-  <si>
-    <t>5,101</t>
-  </si>
-  <si>
-    <t>7,082</t>
-  </si>
-  <si>
-    <t>6,064</t>
-  </si>
-  <si>
-    <t>4,978</t>
-  </si>
-  <si>
-    <t>7,144</t>
-  </si>
-  <si>
-    <t>4,040</t>
-  </si>
-  <si>
-    <t>5,550</t>
-  </si>
-  <si>
-    <t>4,316</t>
-  </si>
-  <si>
-    <t>6,562</t>
-  </si>
-  <si>
-    <t>7,369</t>
-  </si>
-  <si>
-    <t>7,350</t>
-  </si>
-  <si>
-    <t>4,604</t>
-  </si>
-  <si>
-    <t>4,813</t>
-  </si>
-  <si>
-    <t>4,804</t>
-  </si>
-  <si>
-    <t>6,967</t>
-  </si>
-  <si>
-    <t>4,259</t>
-  </si>
-  <si>
-    <t>3,981</t>
-  </si>
-  <si>
-    <t>5,312</t>
-  </si>
-  <si>
-    <t>3,706</t>
-  </si>
-  <si>
-    <t>3,528</t>
-  </si>
-  <si>
-    <t>5,857</t>
-  </si>
-  <si>
-    <t>6,849</t>
-  </si>
-  <si>
-    <t>3,970</t>
-  </si>
-  <si>
-    <t>5,504</t>
-  </si>
-  <si>
-    <t>7,477</t>
-  </si>
-  <si>
-    <t>3,623</t>
-  </si>
-  <si>
-    <t>4,297</t>
-  </si>
-  <si>
-    <t>7,650</t>
-  </si>
-  <si>
-    <t>6,587</t>
-  </si>
-  <si>
-    <t>4,420</t>
-  </si>
-  <si>
-    <t>6,416</t>
-  </si>
-  <si>
-    <t>7,257</t>
-  </si>
-  <si>
-    <t>6,466</t>
-  </si>
-  <si>
-    <t>6,290</t>
-  </si>
-  <si>
-    <t>7,693</t>
-  </si>
-  <si>
-    <t>4,963</t>
-  </si>
-  <si>
-    <t>5,422</t>
-  </si>
-  <si>
-    <t>5,865</t>
-  </si>
-  <si>
-    <t>5,426</t>
-  </si>
-  <si>
-    <t>4,273</t>
-  </si>
-  <si>
-    <t>4,561</t>
-  </si>
-  <si>
-    <t>7,389</t>
-  </si>
-  <si>
-    <t>4,114</t>
-  </si>
-  <si>
-    <t>4,187</t>
-  </si>
-  <si>
-    <t>5,091</t>
-  </si>
-  <si>
-    <t>3,847</t>
-  </si>
-  <si>
-    <t>5,435</t>
-  </si>
-  <si>
-    <t>5,965</t>
-  </si>
-  <si>
-    <t>5,523</t>
-  </si>
-  <si>
-    <t>5,142</t>
-  </si>
-  <si>
-    <t>5,661</t>
-  </si>
-  <si>
-    <t>4,341</t>
-  </si>
-  <si>
-    <t>4,775</t>
-  </si>
-  <si>
-    <t>5,348</t>
-  </si>
-  <si>
-    <t>7,076</t>
-  </si>
-  <si>
-    <t>7,301</t>
-  </si>
-  <si>
-    <t>4,772</t>
-  </si>
-  <si>
-    <t>4,817</t>
-  </si>
-  <si>
-    <t>4,643</t>
-  </si>
-  <si>
-    <t>7,355</t>
-  </si>
-  <si>
-    <t>5,374</t>
-  </si>
-  <si>
-    <t>5,414</t>
-  </si>
-  <si>
-    <t>4,403</t>
-  </si>
-  <si>
-    <t>5,042</t>
-  </si>
-  <si>
-    <t>4,067</t>
-  </si>
-  <si>
-    <t>3,851</t>
-  </si>
-  <si>
-    <t>6,267</t>
-  </si>
-  <si>
-    <t>6,515</t>
-  </si>
-  <si>
-    <t>5,671</t>
-  </si>
-  <si>
-    <t>4,787</t>
-  </si>
-  <si>
-    <t>4,931</t>
-  </si>
-  <si>
-    <t>4,151</t>
-  </si>
-  <si>
-    <t>4,196</t>
-  </si>
-  <si>
-    <t>4,898</t>
-  </si>
-  <si>
-    <t>7,054</t>
-  </si>
-  <si>
-    <t>5,046</t>
-  </si>
-  <si>
-    <t>5,340</t>
-  </si>
-  <si>
-    <t>4,885</t>
-  </si>
-  <si>
-    <t>5,791</t>
-  </si>
-  <si>
-    <t>5,299</t>
-  </si>
-  <si>
-    <t>3,966</t>
-  </si>
-  <si>
-    <t>4,574</t>
-  </si>
-  <si>
-    <t>4,247</t>
-  </si>
-  <si>
-    <t>4,439</t>
-  </si>
-  <si>
-    <t>4,834</t>
-  </si>
-  <si>
-    <t>4,758</t>
-  </si>
-  <si>
-    <t>5,964</t>
-  </si>
-  <si>
-    <t>5,477</t>
-  </si>
-  <si>
-    <t>4,113</t>
-  </si>
-  <si>
-    <t>7,088</t>
-  </si>
-  <si>
-    <t>5,760</t>
-  </si>
-  <si>
-    <t>4,971</t>
-  </si>
-  <si>
-    <t>4,152</t>
-  </si>
-  <si>
-    <t>5,248</t>
-  </si>
-  <si>
-    <t>5,507</t>
-  </si>
-  <si>
-    <t>7,512</t>
-  </si>
-  <si>
-    <t>7,655</t>
-  </si>
-  <si>
-    <t>4,156</t>
-  </si>
-  <si>
-    <t>7,221</t>
-  </si>
-  <si>
-    <t>7,143</t>
-  </si>
-  <si>
-    <t>5,776</t>
-  </si>
-  <si>
-    <t>4,985</t>
-  </si>
-  <si>
-    <t>5,292</t>
-  </si>
-  <si>
-    <t>5,822</t>
-  </si>
-  <si>
-    <t>4,700</t>
-  </si>
-  <si>
-    <t>5,779</t>
-  </si>
-  <si>
-    <t>6,666</t>
-  </si>
-  <si>
-    <t>5,033</t>
-  </si>
-  <si>
-    <t>5,464</t>
-  </si>
-  <si>
-    <t>3,715</t>
-  </si>
-  <si>
-    <t>6,480</t>
-  </si>
-  <si>
-    <t>7,480</t>
-  </si>
-  <si>
-    <t>6,546</t>
-  </si>
-  <si>
-    <t>6,060</t>
-  </si>
-  <si>
-    <t>5,969</t>
-  </si>
-  <si>
-    <t>4,318</t>
-  </si>
-  <si>
-    <t>3,959</t>
-  </si>
-  <si>
-    <t>5,809</t>
-  </si>
-  <si>
-    <t>3,892</t>
-  </si>
-  <si>
-    <t>4,867</t>
-  </si>
-  <si>
-    <t>4,056</t>
-  </si>
-  <si>
-    <t>2,936</t>
-  </si>
-  <si>
-    <t>6,371</t>
-  </si>
-  <si>
-    <t>4,380</t>
-  </si>
-  <si>
-    <t>5,628</t>
-  </si>
-  <si>
-    <t>4,826</t>
-  </si>
-  <si>
-    <t>5,345</t>
-  </si>
-  <si>
-    <t>6,519</t>
-  </si>
-  <si>
-    <t>6,221</t>
-  </si>
-  <si>
-    <t>3,770</t>
-  </si>
-  <si>
-    <t>5,057</t>
-  </si>
-  <si>
-    <t>4,443</t>
-  </si>
-  <si>
-    <t>6,355</t>
-  </si>
-  <si>
-    <t>5,623</t>
-  </si>
-  <si>
-    <t>7,039</t>
-  </si>
-  <si>
-    <t>5,533</t>
-  </si>
-  <si>
-    <t>4,054</t>
-  </si>
-  <si>
-    <t>5,006</t>
-  </si>
-  <si>
-    <t>4,827</t>
-  </si>
-  <si>
-    <t>6,354</t>
-  </si>
-  <si>
-    <t>6,985</t>
-  </si>
-  <si>
-    <t>6,592</t>
-  </si>
-  <si>
-    <t>6,223</t>
-  </si>
-  <si>
-    <t>5,693</t>
-  </si>
-  <si>
-    <t>6,892</t>
-  </si>
-  <si>
-    <t>5,886</t>
-  </si>
-  <si>
-    <t>5,191</t>
-  </si>
-  <si>
-    <t>6,825</t>
-  </si>
-  <si>
-    <t>3,203</t>
-  </si>
-  <si>
-    <t>4,719</t>
-  </si>
-  <si>
-    <t>4,559</t>
-  </si>
-  <si>
-    <t>6,086</t>
-  </si>
-  <si>
-    <t>7,246</t>
-  </si>
-  <si>
-    <t>7,228</t>
-  </si>
-  <si>
-    <t>5,208</t>
-  </si>
-  <si>
-    <t>5,386</t>
-  </si>
-  <si>
-    <t>4,456</t>
-  </si>
-  <si>
-    <t>6,923</t>
-  </si>
-  <si>
-    <t>4,587</t>
-  </si>
-  <si>
-    <t>5,011</t>
-  </si>
-  <si>
-    <t>6,199</t>
-  </si>
-  <si>
-    <t>3,775</t>
-  </si>
-  <si>
-    <t>4,883</t>
-  </si>
-  <si>
-    <t>6,300</t>
-  </si>
-  <si>
-    <t>5,082</t>
-  </si>
-  <si>
-    <t>3,488</t>
-  </si>
-  <si>
-    <t>5,323</t>
-  </si>
-  <si>
-    <t>7,278</t>
-  </si>
-  <si>
-    <t>4,418</t>
-  </si>
-  <si>
-    <t>3,083</t>
-  </si>
-  <si>
-    <t>4,812</t>
-  </si>
-  <si>
-    <t>4,944</t>
-  </si>
-  <si>
-    <t>6,444</t>
-  </si>
-  <si>
-    <t>5,044</t>
-  </si>
-  <si>
-    <t>6,125</t>
-  </si>
-  <si>
-    <t>7,167</t>
-  </si>
-  <si>
-    <t>6,046</t>
-  </si>
-  <si>
-    <t>6,852</t>
-  </si>
-  <si>
-    <t>7,600</t>
-  </si>
-  <si>
-    <t>5,425</t>
-  </si>
-  <si>
-    <t>5,211</t>
-  </si>
-  <si>
-    <t>6,028</t>
-  </si>
-  <si>
-    <t>5,893</t>
-  </si>
-  <si>
-    <t>4,166</t>
-  </si>
-  <si>
-    <t>4,286</t>
-  </si>
-  <si>
-    <t>7,769</t>
-  </si>
-  <si>
-    <t>4,799</t>
-  </si>
-  <si>
-    <t>4,519</t>
-  </si>
-  <si>
-    <t>4,996</t>
-  </si>
-  <si>
-    <t>4,516</t>
-  </si>
-  <si>
-    <t>4,534</t>
-  </si>
-  <si>
-    <t>5,287</t>
-  </si>
-  <si>
-    <t>6,436</t>
-  </si>
-  <si>
-    <t>5,430</t>
-  </si>
-  <si>
-    <t>5,860</t>
-  </si>
-  <si>
-    <t>5,432</t>
-  </si>
-  <si>
-    <t>3,597</t>
-  </si>
-  <si>
-    <t>5,758</t>
-  </si>
-  <si>
-    <t>5,192</t>
-  </si>
-  <si>
-    <t>7,021</t>
-  </si>
-  <si>
-    <t>7,139</t>
-  </si>
-  <si>
-    <t>4,015</t>
-  </si>
-  <si>
-    <t>4,437</t>
-  </si>
-  <si>
-    <t>4,548</t>
-  </si>
-  <si>
-    <t>7,494</t>
-  </si>
-  <si>
-    <t>5,890</t>
-  </si>
-  <si>
-    <t>4,906</t>
-  </si>
-  <si>
-    <t>4,509</t>
-  </si>
-  <si>
-    <t>5,261</t>
-  </si>
-  <si>
-    <t>3,973</t>
-  </si>
-  <si>
-    <t>5,895</t>
-  </si>
-  <si>
-    <t>4,796</t>
-  </si>
-  <si>
-    <t>5,197</t>
-  </si>
-  <si>
-    <t>4,366</t>
-  </si>
-  <si>
-    <t>3,975</t>
-  </si>
-  <si>
-    <t>3,802</t>
-  </si>
-  <si>
-    <t>6,149</t>
-  </si>
-  <si>
-    <t>7,090</t>
-  </si>
-  <si>
-    <t>5,940</t>
-  </si>
-  <si>
-    <t>5,525</t>
-  </si>
-  <si>
-    <t>5,529</t>
-  </si>
-  <si>
-    <t>3,933</t>
-  </si>
-  <si>
-    <t>5,274</t>
-  </si>
-  <si>
-    <t>4,390</t>
-  </si>
-  <si>
-    <t>4,360</t>
-  </si>
-  <si>
-    <t>5,285</t>
-  </si>
-  <si>
-    <t>4,490</t>
-  </si>
-  <si>
-    <t>6,726</t>
-  </si>
-  <si>
-    <t>5,888</t>
-  </si>
-  <si>
-    <t>3,410</t>
-  </si>
-  <si>
-    <t>6,595</t>
-  </si>
-  <si>
-    <t>5,339</t>
-  </si>
-  <si>
-    <t>4,466</t>
-  </si>
-  <si>
-    <t>4,639</t>
-  </si>
-  <si>
-    <t>4,628</t>
-  </si>
-  <si>
-    <t>5,265</t>
-  </si>
-  <si>
-    <t>6,105</t>
-  </si>
-  <si>
-    <t>7,488</t>
-  </si>
-  <si>
-    <t>7,554</t>
-  </si>
-  <si>
-    <t>4,913</t>
-  </si>
-  <si>
-    <t>7,307</t>
-  </si>
-  <si>
-    <t>6,321</t>
-  </si>
-  <si>
-    <t>5,697</t>
-  </si>
-  <si>
-    <t>5,631</t>
-  </si>
-  <si>
-    <t>5,653</t>
-  </si>
-  <si>
-    <t>6,182</t>
-  </si>
-  <si>
-    <t>4,696</t>
-  </si>
-  <si>
-    <t>5,743</t>
-  </si>
-  <si>
-    <t>6,374</t>
-  </si>
-  <si>
-    <t>6,070</t>
-  </si>
-  <si>
-    <t>5,603</t>
-  </si>
-  <si>
-    <t>5,648</t>
-  </si>
-  <si>
-    <t>3,334</t>
-  </si>
-  <si>
-    <t>6,375</t>
-  </si>
-  <si>
-    <t>7,343</t>
-  </si>
-  <si>
-    <t>6,262</t>
-  </si>
-  <si>
-    <t>6,118</t>
-  </si>
-  <si>
-    <t>6,198</t>
-  </si>
-  <si>
-    <t>4,374</t>
-  </si>
-  <si>
-    <t>4,681</t>
-  </si>
-  <si>
-    <t>4,668</t>
-  </si>
-  <si>
-    <t>2,853</t>
-  </si>
-  <si>
-    <t>6,253</t>
-  </si>
-  <si>
-    <t>3,462</t>
-  </si>
-  <si>
-    <t>4,212</t>
-  </si>
-  <si>
-    <t>4,350</t>
-  </si>
-  <si>
-    <t>4,085</t>
-  </si>
-  <si>
-    <t>6,008</t>
-  </si>
-  <si>
-    <t>5,467</t>
-  </si>
-  <si>
-    <t>5,247</t>
-  </si>
-  <si>
-    <t>4,461</t>
-  </si>
-  <si>
-    <t>5,373</t>
-  </si>
-  <si>
-    <t>6,192</t>
-  </si>
-  <si>
-    <t>6,446</t>
-  </si>
-  <si>
-    <t>3,231</t>
-  </si>
-  <si>
-    <t>4,332</t>
-  </si>
-  <si>
-    <t>4,189</t>
-  </si>
-  <si>
-    <t>6,293</t>
-  </si>
-  <si>
-    <t>6,174</t>
-  </si>
-  <si>
-    <t>4,707</t>
-  </si>
-  <si>
-    <t>5,175</t>
-  </si>
-  <si>
-    <t>3,380</t>
-  </si>
-  <si>
-    <t>4,722</t>
-  </si>
-  <si>
-    <t>4,107</t>
-  </si>
-  <si>
-    <t>3,663</t>
-  </si>
-  <si>
-    <t>6,310</t>
-  </si>
-  <si>
-    <t>6,965</t>
-  </si>
-  <si>
-    <t>6,814</t>
-  </si>
-  <si>
-    <t>6,489</t>
-  </si>
-  <si>
-    <t>6,000</t>
-  </si>
-  <si>
-    <t>5,410</t>
-  </si>
-  <si>
-    <t>6,886</t>
-  </si>
-  <si>
-    <t>5,915</t>
-  </si>
-  <si>
-    <t>5,246</t>
-  </si>
-  <si>
-    <t>6,774</t>
-  </si>
-  <si>
-    <t>3,632</t>
-  </si>
-  <si>
-    <t>4,586</t>
-  </si>
-  <si>
-    <t>4,321</t>
-  </si>
-  <si>
-    <t>6,388</t>
-  </si>
-  <si>
-    <t>7,272</t>
-  </si>
-  <si>
-    <t>5,201</t>
-  </si>
-  <si>
-    <t>5,129</t>
-  </si>
-  <si>
-    <t>4,500</t>
-  </si>
-  <si>
-    <t>6,927</t>
-  </si>
-  <si>
-    <t>4,424</t>
-  </si>
-  <si>
-    <t>4,933</t>
-  </si>
-  <si>
-    <t>2,905</t>
-  </si>
-  <si>
-    <t>4,141</t>
-  </si>
-  <si>
-    <t>5,752</t>
-  </si>
-  <si>
-    <t>6,419</t>
-  </si>
-  <si>
-    <t>3,590</t>
-  </si>
-  <si>
-    <t>5,483</t>
-  </si>
-  <si>
-    <t>7,328</t>
-  </si>
-  <si>
-    <t>4,245</t>
-  </si>
-  <si>
-    <t>7,487</t>
-  </si>
-  <si>
-    <t>4,671</t>
-  </si>
-  <si>
-    <t>6,476</t>
-  </si>
-  <si>
-    <t>4,975</t>
-  </si>
-  <si>
-    <t>6,260</t>
-  </si>
-  <si>
-    <t>7,072</t>
-  </si>
-  <si>
-    <t>5,762</t>
-  </si>
-  <si>
-    <t>6,711</t>
-  </si>
-  <si>
-    <t>7,555</t>
-  </si>
-  <si>
-    <t>5,302</t>
-  </si>
-  <si>
-    <t>5,295</t>
-  </si>
-  <si>
-    <t>5,973</t>
-  </si>
-  <si>
-    <t>5,739</t>
-  </si>
-  <si>
-    <t>4,419</t>
-  </si>
-  <si>
-    <t>7,632</t>
-  </si>
-  <si>
-    <t>4,340</t>
-  </si>
-  <si>
-    <t>4,657</t>
-  </si>
-  <si>
-    <t>3,964</t>
-  </si>
-  <si>
-    <t>5,358</t>
-  </si>
-  <si>
-    <t>6,382</t>
-  </si>
-  <si>
-    <t>5,321</t>
-  </si>
-  <si>
-    <t>3,582</t>
-  </si>
-  <si>
-    <t>5,620</t>
-  </si>
-  <si>
-    <t>5,093</t>
-  </si>
-  <si>
-    <t>6,977</t>
-  </si>
-  <si>
-    <t>7,190</t>
-  </si>
-  <si>
-    <t>4,190</t>
-  </si>
-  <si>
-    <t>7,495</t>
-  </si>
-  <si>
-    <t>5,161</t>
-  </si>
-  <si>
-    <t>4,410</t>
-  </si>
-  <si>
-    <t>5,131</t>
-  </si>
-  <si>
-    <t>4,433</t>
-  </si>
-  <si>
-    <t>5,875</t>
-  </si>
-  <si>
-    <t>6,083</t>
-  </si>
-  <si>
-    <t>5,790</t>
-  </si>
-  <si>
-    <t>4,623</t>
-  </si>
-  <si>
-    <t>5,199</t>
-  </si>
-  <si>
-    <t>4,471</t>
-  </si>
-  <si>
-    <t>3,495</t>
-  </si>
-  <si>
-    <t>3,808</t>
-  </si>
-  <si>
-    <t>5,952</t>
-  </si>
-  <si>
-    <t>6,910</t>
-  </si>
-  <si>
-    <t>5,933</t>
-  </si>
-  <si>
-    <t>5,566</t>
-  </si>
-  <si>
-    <t>5,254</t>
-  </si>
-  <si>
-    <t>5,640</t>
-  </si>
-  <si>
-    <t>5,347</t>
-  </si>
-  <si>
-    <t>3,774</t>
-  </si>
-  <si>
-    <t>5,185</t>
-  </si>
-  <si>
-    <t>4,447</t>
-  </si>
-  <si>
-    <t>4,308</t>
-  </si>
-  <si>
-    <t>5,125</t>
-  </si>
-  <si>
-    <t>4,356</t>
-  </si>
-  <si>
-    <t>6,627</t>
-  </si>
-  <si>
-    <t>5,891</t>
-  </si>
-  <si>
-    <t>3,587</t>
-  </si>
-  <si>
-    <t>6,488</t>
-  </si>
-  <si>
-    <t>4,417</t>
-  </si>
-  <si>
-    <t>4,441</t>
-  </si>
-  <si>
-    <t>5,155</t>
-  </si>
-  <si>
-    <t>6,141</t>
-  </si>
-  <si>
-    <t>7,441</t>
-  </si>
-  <si>
-    <t>7,594</t>
-  </si>
-  <si>
-    <t>4,880</t>
-  </si>
-  <si>
-    <t>7,324</t>
-  </si>
-  <si>
-    <t>6,430</t>
-  </si>
-  <si>
-    <t>5,663</t>
-  </si>
-  <si>
-    <t>5,524</t>
-  </si>
-  <si>
-    <t>5,472</t>
-  </si>
-  <si>
-    <t>6,123</t>
-  </si>
-  <si>
-    <t>4,743</t>
-  </si>
-  <si>
-    <t>5,681</t>
-  </si>
-  <si>
-    <t>5,945</t>
-  </si>
-  <si>
-    <t>5,398</t>
-  </si>
-  <si>
-    <t>5,810</t>
-  </si>
-  <si>
-    <t>3,408</t>
-  </si>
-  <si>
-    <t>7,314</t>
-  </si>
-  <si>
-    <t>6,343</t>
-  </si>
-  <si>
-    <t>5,948</t>
-  </si>
-  <si>
-    <t>6,173</t>
-  </si>
-  <si>
-    <t>4,571</t>
-  </si>
-  <si>
-    <t>4,631</t>
-  </si>
-  <si>
-    <t>4,982</t>
-  </si>
-  <si>
-    <t>3,254</t>
-  </si>
-  <si>
-    <t>6,167</t>
-  </si>
-  <si>
-    <t>4,301</t>
-  </si>
-  <si>
-    <t>3,999</t>
-  </si>
-  <si>
-    <t>6,072</t>
-  </si>
-  <si>
-    <t>5,352</t>
-  </si>
-  <si>
-    <t>5,636</t>
-  </si>
-  <si>
-    <t>4,592</t>
-  </si>
-  <si>
-    <t>6,441</t>
-  </si>
-  <si>
-    <t>3,303</t>
-  </si>
-  <si>
-    <t>4,103</t>
-  </si>
-  <si>
-    <t>4,161</t>
-  </si>
-  <si>
-    <t>6,379</t>
-  </si>
-  <si>
-    <t>6,096</t>
-  </si>
-  <si>
-    <t>4,806</t>
-  </si>
-  <si>
-    <t>5,103</t>
-  </si>
-  <si>
-    <t>3,355</t>
-  </si>
-  <si>
-    <t>4,724</t>
-  </si>
-  <si>
-    <t>4,377</t>
-  </si>
-  <si>
-    <t>3,692</t>
-  </si>
-  <si>
-    <t>6,403</t>
-  </si>
-  <si>
-    <t>6,951</t>
-  </si>
-  <si>
-    <t>6,714</t>
-  </si>
-  <si>
-    <t>6,442</t>
-  </si>
-  <si>
-    <t>5,195</t>
-  </si>
-  <si>
-    <t>6,993</t>
-  </si>
-  <si>
-    <t>5,920</t>
-  </si>
-  <si>
-    <t>5,273</t>
-  </si>
-  <si>
-    <t>6,648</t>
-  </si>
-  <si>
-    <t>3,794</t>
-  </si>
-  <si>
-    <t>4,644</t>
-  </si>
-  <si>
-    <t>4,376</t>
-  </si>
-  <si>
-    <t>6,599</t>
-  </si>
-  <si>
-    <t>7,006</t>
-  </si>
-  <si>
-    <t>7,284</t>
-  </si>
-  <si>
-    <t>5,234</t>
-  </si>
-  <si>
-    <t>5,182</t>
-  </si>
-  <si>
-    <t>4,608</t>
-  </si>
-  <si>
-    <t>6,891</t>
-  </si>
-  <si>
-    <t>4,032</t>
-  </si>
-  <si>
-    <t>4,714</t>
-  </si>
-  <si>
-    <t>6,087</t>
-  </si>
-  <si>
-    <t>3,657</t>
-  </si>
-  <si>
-    <t>5,823</t>
-  </si>
-  <si>
-    <t>6,635</t>
-  </si>
-  <si>
-    <t>3,766</t>
-  </si>
-  <si>
-    <t>5,569</t>
-  </si>
-  <si>
-    <t>7,316</t>
-  </si>
-  <si>
-    <t>4,280</t>
-  </si>
-  <si>
-    <t>2,693</t>
-  </si>
-  <si>
-    <t>4,291</t>
-  </si>
-  <si>
-    <t>4,180</t>
-  </si>
-  <si>
-    <t>6,652</t>
-  </si>
-  <si>
-    <t>4,695</t>
-  </si>
-  <si>
-    <t>6,357</t>
-  </si>
-  <si>
-    <t>7,079</t>
-  </si>
-  <si>
-    <t>5,621</t>
-  </si>
-  <si>
-    <t>6,609</t>
-  </si>
-  <si>
-    <t>7,522</t>
-  </si>
-  <si>
-    <t>5,230</t>
-  </si>
-  <si>
-    <t>5,872</t>
-  </si>
-  <si>
-    <t>5,611</t>
-  </si>
-  <si>
-    <t>4,735</t>
-  </si>
-  <si>
-    <t>4,460</t>
-  </si>
-  <si>
-    <t>7,469</t>
-  </si>
-  <si>
-    <t>4,465</t>
-  </si>
-  <si>
-    <t>4,120</t>
-  </si>
-  <si>
-    <t>3,507</t>
-  </si>
-  <si>
-    <t>5,227</t>
-  </si>
-  <si>
-    <t>6,454</t>
-  </si>
-  <si>
-    <t>5,181</t>
-  </si>
-  <si>
-    <t>5,293</t>
-  </si>
-  <si>
-    <t>3,603</t>
-  </si>
-  <si>
-    <t>5,324</t>
-  </si>
-  <si>
-    <t>5,262</t>
-  </si>
-  <si>
-    <t>7,213</t>
-  </si>
-  <si>
-    <t>4,315</t>
-  </si>
-  <si>
-    <t>4,497</t>
-  </si>
-  <si>
-    <t>4,692</t>
-  </si>
-  <si>
-    <t>7,504</t>
-  </si>
-  <si>
-    <t>5,311</t>
-  </si>
-  <si>
-    <t>5,336</t>
-  </si>
-  <si>
-    <t>4,553</t>
-  </si>
-  <si>
-    <t>5,004</t>
-  </si>
-  <si>
-    <t>4,168</t>
-  </si>
-  <si>
-    <t>5,838</t>
-  </si>
-  <si>
-    <t>5,819</t>
-  </si>
-  <si>
-    <t>5,225</t>
-  </si>
-  <si>
-    <t>4,440</t>
-  </si>
-  <si>
-    <t>3,533</t>
-  </si>
-  <si>
-    <t>5,902</t>
-  </si>
-  <si>
-    <t>6,863</t>
-  </si>
-  <si>
-    <t>5,850</t>
-  </si>
-  <si>
-    <t>5,235</t>
-  </si>
-  <si>
-    <t>5,237</t>
-  </si>
-  <si>
-    <t>3,644</t>
-  </si>
-  <si>
-    <t>4,545</t>
-  </si>
-  <si>
-    <t>4,955</t>
-  </si>
-  <si>
-    <t>4,292</t>
-  </si>
-  <si>
-    <t>6,527</t>
-  </si>
-  <si>
-    <t>5,629</t>
-  </si>
-  <si>
-    <t>6,578</t>
-  </si>
-  <si>
-    <t>6,084</t>
-  </si>
-  <si>
-    <t>4,550</t>
-  </si>
-  <si>
-    <t>4,028</t>
-  </si>
-  <si>
-    <t>5,074</t>
-  </si>
-  <si>
-    <t>6,071</t>
-  </si>
-  <si>
-    <t>7,377</t>
-  </si>
-  <si>
-    <t>7,537</t>
-  </si>
-  <si>
-    <t>4,962</t>
-  </si>
-  <si>
-    <t>6,452</t>
-  </si>
-  <si>
-    <t>5,715</t>
-  </si>
-  <si>
-    <t>5,269</t>
-  </si>
-  <si>
-    <t>5,493</t>
-  </si>
-  <si>
-    <t>5,825</t>
-  </si>
-  <si>
-    <t>5,395</t>
-  </si>
-  <si>
-    <t>5,963</t>
-  </si>
-  <si>
-    <t>3,471</t>
-  </si>
-  <si>
-    <t>6,344</t>
-  </si>
-  <si>
-    <t>6,572</t>
-  </si>
-  <si>
-    <t>6,098</t>
-  </si>
-  <si>
-    <t>4,709</t>
-  </si>
-  <si>
-    <t>4,535</t>
-  </si>
-  <si>
-    <t>5,151</t>
-  </si>
-  <si>
-    <t>3,591</t>
-  </si>
-  <si>
-    <t>6,003</t>
-  </si>
-  <si>
-    <t>3,936</t>
-  </si>
-  <si>
-    <t>6,424</t>
-  </si>
-  <si>
-    <t>5,041</t>
-  </si>
-  <si>
-    <t>4,805</t>
-  </si>
-  <si>
-    <t>5,500</t>
-  </si>
-  <si>
-    <t>6,168</t>
-  </si>
-  <si>
-    <t>6,422</t>
-  </si>
-  <si>
-    <t>3,349</t>
-  </si>
-  <si>
-    <t>4,096</t>
-  </si>
-  <si>
-    <t>4,081</t>
-  </si>
-  <si>
-    <t>5,971</t>
-  </si>
-  <si>
-    <t>5,250</t>
-  </si>
-  <si>
-    <t>3,593</t>
-  </si>
-  <si>
-    <t>4,829</t>
-  </si>
-  <si>
-    <t>4,514</t>
-  </si>
-  <si>
-    <t>3,875</t>
-  </si>
-  <si>
-    <t>6,361</t>
-  </si>
-  <si>
-    <t>6,994</t>
-  </si>
-  <si>
-    <t>6,725</t>
-  </si>
-  <si>
-    <t>6,478</t>
-  </si>
-  <si>
-    <t>5,977</t>
-  </si>
-  <si>
-    <t>5,123</t>
-  </si>
-  <si>
-    <t>7,104</t>
-  </si>
-  <si>
-    <t>5,921</t>
-  </si>
-  <si>
-    <t>5,245</t>
-  </si>
-  <si>
-    <t>6,573</t>
-  </si>
-  <si>
-    <t>3,360</t>
-  </si>
-  <si>
-    <t>4,655</t>
-  </si>
-  <si>
-    <t>6,650</t>
-  </si>
-  <si>
-    <t>7,119</t>
-  </si>
-  <si>
-    <t>7,313</t>
-  </si>
-  <si>
-    <t>5,291</t>
-  </si>
-  <si>
-    <t>5,163</t>
-  </si>
-  <si>
-    <t>6,929</t>
-  </si>
-  <si>
-    <t>3,739</t>
-  </si>
-  <si>
-    <t>4,217</t>
-  </si>
-  <si>
-    <t>6,218</t>
-  </si>
-  <si>
-    <t>3,484</t>
-  </si>
-  <si>
-    <t>6,952</t>
-  </si>
-  <si>
-    <t>5,196</t>
-  </si>
-  <si>
-    <t>3,974</t>
-  </si>
-  <si>
-    <t>5,802</t>
-  </si>
-  <si>
-    <t>7,404</t>
-  </si>
-  <si>
-    <t>4,272</t>
-  </si>
-  <si>
-    <t>4,236</t>
-  </si>
-  <si>
-    <t>7,509</t>
-  </si>
-  <si>
-    <t>3,916</t>
-  </si>
-  <si>
-    <t>6,705</t>
-  </si>
-  <si>
-    <t>4,513</t>
-  </si>
-  <si>
-    <t>6,481</t>
-  </si>
-  <si>
-    <t>7,087</t>
-  </si>
-  <si>
-    <t>5,546</t>
-  </si>
-  <si>
-    <t>6,596</t>
-  </si>
-  <si>
-    <t>7,526</t>
-  </si>
-  <si>
-    <t>5,976</t>
-  </si>
-  <si>
-    <t>5,517</t>
-  </si>
-  <si>
-    <t>4,362</t>
-  </si>
-  <si>
-    <t>4,508</t>
-  </si>
-  <si>
-    <t>7,413</t>
-  </si>
-  <si>
-    <t>4,121</t>
-  </si>
-  <si>
-    <t>4,252</t>
-  </si>
-  <si>
-    <t>4,276</t>
-  </si>
-  <si>
-    <t>3,607</t>
-  </si>
-  <si>
-    <t>6,324</t>
-  </si>
-  <si>
-    <t>5,458</t>
-  </si>
-  <si>
-    <t>4,871</t>
-  </si>
-  <si>
-    <t>5,488</t>
-  </si>
-  <si>
-    <t>5,145</t>
-  </si>
-  <si>
-    <t>5,314</t>
-  </si>
-  <si>
-    <t>6,907</t>
-  </si>
-  <si>
-    <t>7,267</t>
-  </si>
-  <si>
-    <t>4,404</t>
-  </si>
-  <si>
-    <t>4,575</t>
-  </si>
-  <si>
-    <t>7,501</t>
-  </si>
-  <si>
-    <t>5,510</t>
-  </si>
-  <si>
-    <t>5,303</t>
-  </si>
-  <si>
-    <t>3,907</t>
-  </si>
-  <si>
-    <t>3,956</t>
-  </si>
-  <si>
-    <t>5,835</t>
-  </si>
-  <si>
-    <t>6,239</t>
-  </si>
-  <si>
-    <t>5,919</t>
-  </si>
-  <si>
-    <t>4,876</t>
-  </si>
-  <si>
-    <t>4,415</t>
-  </si>
-  <si>
-    <t>3,622</t>
-  </si>
-  <si>
-    <t>5,813</t>
-  </si>
-  <si>
-    <t>6,871</t>
-  </si>
-  <si>
-    <t>5,560</t>
-  </si>
-  <si>
-    <t>5,615</t>
-  </si>
-  <si>
-    <t>5,897</t>
-  </si>
-  <si>
-    <t>3,695</t>
-  </si>
-  <si>
-    <t>5,121</t>
-  </si>
-  <si>
-    <t>4,073</t>
-  </si>
-  <si>
-    <t>4,395</t>
-  </si>
-  <si>
-    <t>4,907</t>
-  </si>
-  <si>
-    <t>4,201</t>
-  </si>
-  <si>
-    <t>6,778</t>
-  </si>
-  <si>
-    <t>6,005</t>
-  </si>
-  <si>
-    <t>3,856</t>
-  </si>
-  <si>
-    <t>4,875</t>
-  </si>
-  <si>
-    <t>5,992</t>
-  </si>
-  <si>
-    <t>7,339</t>
-  </si>
-  <si>
-    <t>7,498</t>
-  </si>
-  <si>
-    <t>4,793</t>
-  </si>
-  <si>
-    <t>7,334</t>
-  </si>
-  <si>
-    <t>6,701</t>
-  </si>
-  <si>
-    <t>5,279</t>
-  </si>
-  <si>
-    <t>5,132</t>
-  </si>
-  <si>
-    <t>4,754</t>
-  </si>
-  <si>
-    <t>5,538</t>
-  </si>
-  <si>
-    <t>5,528</t>
-  </si>
-  <si>
-    <t>5,177</t>
-  </si>
-  <si>
-    <t>5,856</t>
-  </si>
-  <si>
-    <t>3,515</t>
-  </si>
-  <si>
-    <t>7,291</t>
-  </si>
-  <si>
-    <t>6,739</t>
-  </si>
-  <si>
-    <t>5,768</t>
-  </si>
-  <si>
-    <t>6,078</t>
-  </si>
-  <si>
-    <t>4,635</t>
-  </si>
-  <si>
-    <t>4,219</t>
-  </si>
-  <si>
-    <t>5,440</t>
-  </si>
-  <si>
-    <t>3,832</t>
-  </si>
-  <si>
-    <t>6,068</t>
-  </si>
-  <si>
-    <t>3,069</t>
-  </si>
-  <si>
-    <t>3,763</t>
-  </si>
-  <si>
-    <t>6,474</t>
-  </si>
-  <si>
-    <t>5,658</t>
-  </si>
-  <si>
-    <t>5,045</t>
-  </si>
-  <si>
-    <t>5,389</t>
-  </si>
-  <si>
-    <t>3,666</t>
-  </si>
-  <si>
-    <t>4,324</t>
-  </si>
-  <si>
-    <t>6,545</t>
-  </si>
-  <si>
-    <t>5,987</t>
-  </si>
-  <si>
-    <t>5,061</t>
-  </si>
-  <si>
-    <t>3,724</t>
-  </si>
-  <si>
-    <t>4,459</t>
-  </si>
-  <si>
-    <t>4,795</t>
-  </si>
-  <si>
-    <t>4,193</t>
   </si>
   <si>
     <t>IF2019</t>
@@ -2911,7 +919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66157A94-2532-446C-80C5-DF7E8AEACED2}">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" activeCellId="4" sqref="C1:C1048576 E1:E1048576 G1:G1048576 I1:I1048576 K1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2923,3283 +933,3283 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>671</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>666</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>672</v>
+        <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>667</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>673</v>
+        <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>668</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>674</v>
+        <v>9</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>669</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>675</v>
+        <v>10</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>670</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>676</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>191</v>
+      <c r="C2" s="2">
+        <v>7769</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>334</v>
+      <c r="E2" s="2">
+        <v>7632</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>467</v>
+      <c r="G2">
+        <v>7469</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>587</v>
+      <c r="I2">
+        <v>7413</v>
       </c>
       <c r="J2">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
-        <v>47</v>
+      <c r="K2">
+        <v>7389</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>677</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>184</v>
+      <c r="C3" s="2">
+        <v>7600</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>328</v>
+      <c r="E3" s="2">
+        <v>7555</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>461</v>
+      <c r="G3">
+        <v>7522</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>582</v>
+      <c r="I3">
+        <v>7526</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>40</v>
+      <c r="K3">
+        <v>7693</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>678</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>244</v>
+      <c r="C4" s="2">
+        <v>7554</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>382</v>
+      <c r="E4" s="2">
+        <v>7594</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>511</v>
+      <c r="G4">
+        <v>7537</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
-        <v>630</v>
+      <c r="I4">
+        <v>7498</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
-        <v>102</v>
+      <c r="K4">
+        <v>7655</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>679</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>210</v>
+      <c r="C5" s="2">
+        <v>7494</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>347</v>
+      <c r="E5" s="2">
+        <v>7495</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
-        <v>482</v>
+      <c r="G5">
+        <v>7504</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
-        <v>602</v>
+      <c r="I5">
+        <v>7501</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
-      <c r="K5" t="s">
-        <v>65</v>
+      <c r="K5">
+        <v>7355</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>680</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>243</v>
+      <c r="C6" s="2">
+        <v>7488</v>
       </c>
       <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>381</v>
+      <c r="E6" s="2">
+        <v>7441</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
-        <v>510</v>
+      <c r="G6">
+        <v>7377</v>
       </c>
       <c r="H6">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
-        <v>629</v>
+      <c r="I6">
+        <v>7339</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" t="s">
-        <v>101</v>
+      <c r="K6">
+        <v>7512</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>681</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>117</v>
+      <c r="C7" s="2">
+        <v>7480</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>320</v>
+      <c r="E7" s="2">
+        <v>7487</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
-        <v>210</v>
+      <c r="G7">
+        <v>7494</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
-        <v>574</v>
+      <c r="I7">
+        <v>7509</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" t="s">
-        <v>33</v>
+      <c r="K7">
+        <v>7650</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>682</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>260</v>
+      <c r="C8" s="2">
+        <v>7343</v>
       </c>
       <c r="D8" s="2">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>396</v>
+      <c r="E8" s="2">
+        <v>7314</v>
       </c>
       <c r="F8">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
-        <v>437</v>
+      <c r="G8">
+        <v>7284</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>642</v>
+      <c r="I8">
+        <v>7291</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" t="s">
-        <v>117</v>
+      <c r="K8">
+        <v>7480</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>683</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>246</v>
+      <c r="C9" s="2">
+        <v>7307</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>384</v>
+      <c r="E9" s="2">
+        <v>7324</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
-        <v>396</v>
+      <c r="G9">
+        <v>7314</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
-        <v>632</v>
+      <c r="I9">
+        <v>7334</v>
       </c>
       <c r="J9">
         <v>13</v>
       </c>
-      <c r="K9" t="s">
-        <v>104</v>
+      <c r="K9">
+        <v>7221</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>684</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>173</v>
+      <c r="C10" s="2">
+        <v>7278</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>318</v>
+      <c r="E10" s="2">
+        <v>7328</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
-        <v>450</v>
+      <c r="G10">
+        <v>7316</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
-      <c r="I10" t="s">
-        <v>571</v>
+      <c r="I10">
+        <v>7404</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
-      <c r="K10" t="s">
-        <v>30</v>
+      <c r="K10">
+        <v>7477</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>685</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>158</v>
+      <c r="C11" s="2">
+        <v>7246</v>
       </c>
       <c r="D11" s="2">
         <v>12</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>206</v>
+      <c r="E11" s="2">
+        <v>7139</v>
       </c>
       <c r="F11">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>436</v>
+      <c r="G11">
+        <v>7006</v>
       </c>
       <c r="H11">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
-        <v>558</v>
+      <c r="I11">
+        <v>7119</v>
       </c>
       <c r="J11">
         <v>8</v>
       </c>
-      <c r="K11" t="s">
-        <v>15</v>
+      <c r="K11">
+        <v>7369</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>686</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>159</v>
+      <c r="C12" s="2">
+        <v>7228</v>
       </c>
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>305</v>
+      <c r="E12" s="2">
+        <v>7272</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
-        <v>437</v>
+      <c r="G12">
+        <v>7284</v>
       </c>
       <c r="H12">
         <v>9</v>
       </c>
-      <c r="I12" t="s">
-        <v>559</v>
+      <c r="I12">
+        <v>7313</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12" t="s">
-        <v>16</v>
+      <c r="K12">
+        <v>7350</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>687</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>181</v>
+      <c r="C13" s="2">
+        <v>7167</v>
       </c>
       <c r="D13" s="2">
         <v>13</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>325</v>
+      <c r="E13" s="2">
+        <v>7072</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
-        <v>458</v>
+      <c r="G13">
+        <v>7079</v>
       </c>
       <c r="H13">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>579</v>
+      <c r="I13">
+        <v>7087</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
-      <c r="K13" t="s">
-        <v>37</v>
+      <c r="K13">
+        <v>7257</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>688</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>206</v>
+      <c r="C14" s="2">
+        <v>7139</v>
       </c>
       <c r="D14" s="2">
         <v>11</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>345</v>
+      <c r="E14" s="2">
+        <v>7190</v>
       </c>
       <c r="F14">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>478</v>
+      <c r="G14">
+        <v>7213</v>
       </c>
       <c r="H14">
         <v>11</v>
       </c>
-      <c r="I14" t="s">
-        <v>599</v>
+      <c r="I14">
+        <v>7267</v>
       </c>
       <c r="J14">
         <v>11</v>
       </c>
-      <c r="K14" t="s">
-        <v>61</v>
+      <c r="K14">
+        <v>7301</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>689</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>223</v>
+      <c r="C15" s="2">
+        <v>7090</v>
       </c>
       <c r="D15" s="2">
         <v>17</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>361</v>
+      <c r="E15" s="2">
+        <v>6910</v>
       </c>
       <c r="F15">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
-        <v>494</v>
+      <c r="G15">
+        <v>6863</v>
       </c>
       <c r="H15">
         <v>20</v>
       </c>
-      <c r="I15" t="s">
-        <v>614</v>
+      <c r="I15">
+        <v>6871</v>
       </c>
       <c r="J15">
         <v>19</v>
       </c>
-      <c r="K15" t="s">
-        <v>80</v>
+      <c r="K15">
+        <v>7054</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>690</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>80</v>
+      <c r="C16" s="2">
+        <v>7054</v>
       </c>
       <c r="D16" s="2">
         <v>19</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>293</v>
+      <c r="E16" s="2">
+        <v>6814</v>
       </c>
       <c r="F16">
         <v>19</v>
       </c>
-      <c r="G16" t="s">
-        <v>425</v>
+      <c r="G16">
+        <v>6714</v>
       </c>
       <c r="H16">
         <v>23</v>
       </c>
-      <c r="I16" t="s">
-        <v>547</v>
+      <c r="I16">
+        <v>6725</v>
       </c>
       <c r="J16">
         <v>22</v>
       </c>
-      <c r="K16" t="s">
-        <v>3</v>
+      <c r="K16">
+        <v>6883</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>691</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>205</v>
+      <c r="C17" s="2">
+        <v>7021</v>
       </c>
       <c r="D17" s="2">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>344</v>
+      <c r="E17" s="2">
+        <v>6977</v>
       </c>
       <c r="F17">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
-        <v>344</v>
+      <c r="G17">
+        <v>6977</v>
       </c>
       <c r="H17">
         <v>19</v>
       </c>
-      <c r="I17" t="s">
-        <v>598</v>
+      <c r="I17">
+        <v>6907</v>
       </c>
       <c r="J17">
         <v>18</v>
       </c>
-      <c r="K17" t="s">
-        <v>60</v>
+      <c r="K17">
+        <v>7076</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>692</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>146</v>
+      <c r="C18" s="2">
+        <v>6985</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>292</v>
+      <c r="E18" s="2">
+        <v>6965</v>
       </c>
       <c r="F18">
         <v>16</v>
       </c>
-      <c r="G18" t="s">
-        <v>424</v>
+      <c r="G18">
+        <v>6951</v>
       </c>
       <c r="H18">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
-        <v>546</v>
+      <c r="I18">
+        <v>6994</v>
       </c>
       <c r="J18">
         <v>26</v>
       </c>
-      <c r="K18" t="s">
-        <v>2</v>
+      <c r="K18">
+        <v>6672</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>693</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>163</v>
+      <c r="C19" s="2">
+        <v>6923</v>
       </c>
       <c r="D19" s="2">
         <v>16</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>309</v>
+      <c r="E19" s="2">
+        <v>6927</v>
       </c>
       <c r="F19">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
-        <v>441</v>
+      <c r="G19">
+        <v>6891</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
-        <v>562</v>
+      <c r="I19">
+        <v>6929</v>
       </c>
       <c r="J19">
         <v>21</v>
       </c>
-      <c r="K19" t="s">
-        <v>20</v>
+      <c r="K19">
+        <v>6967</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>694</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>150</v>
+      <c r="C20" s="2">
+        <v>6892</v>
       </c>
       <c r="D20" s="2">
         <v>18</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>297</v>
+      <c r="E20" s="2">
+        <v>6886</v>
       </c>
       <c r="F20">
         <v>14</v>
       </c>
-      <c r="G20" t="s">
-        <v>428</v>
+      <c r="G20">
+        <v>6993</v>
       </c>
       <c r="H20">
         <v>13</v>
       </c>
-      <c r="I20" t="s">
-        <v>551</v>
+      <c r="I20">
+        <v>7104</v>
       </c>
       <c r="J20">
         <v>17</v>
       </c>
-      <c r="K20" t="s">
-        <v>7</v>
+      <c r="K20">
+        <v>7082</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>695</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>183</v>
+      <c r="C21" s="2">
+        <v>6852</v>
       </c>
       <c r="D21" s="2">
         <v>21</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>327</v>
+      <c r="E21" s="2">
+        <v>6711</v>
       </c>
       <c r="F21">
         <v>23</v>
       </c>
-      <c r="G21" t="s">
-        <v>460</v>
+      <c r="G21">
+        <v>6609</v>
       </c>
       <c r="H21">
         <v>27</v>
       </c>
-      <c r="I21" t="s">
-        <v>581</v>
+      <c r="I21">
+        <v>6596</v>
       </c>
       <c r="J21">
         <v>39</v>
       </c>
-      <c r="K21" t="s">
-        <v>39</v>
+      <c r="K21">
+        <v>6290</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>696</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>153</v>
+      <c r="C22" s="2">
+        <v>6825</v>
       </c>
       <c r="D22" s="2">
         <v>20</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>300</v>
+      <c r="E22" s="2">
+        <v>6774</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" t="s">
-        <v>431</v>
+      <c r="G22">
+        <v>6648</v>
       </c>
       <c r="H22">
         <v>28</v>
       </c>
-      <c r="I22" t="s">
-        <v>554</v>
+      <c r="I22">
+        <v>6573</v>
       </c>
       <c r="J22">
         <v>14</v>
       </c>
-      <c r="K22" t="s">
-        <v>10</v>
+      <c r="K22">
+        <v>7144</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>697</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>233</v>
+      <c r="C23" s="2">
+        <v>6726</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>373</v>
+      <c r="E23" s="2">
+        <v>6627</v>
       </c>
       <c r="F23">
         <v>27</v>
       </c>
-      <c r="G23" t="s">
-        <v>502</v>
+      <c r="G23">
+        <v>6527</v>
       </c>
       <c r="H23">
         <v>30</v>
       </c>
-      <c r="I23" t="s">
-        <v>376</v>
+      <c r="I23">
+        <v>6488</v>
       </c>
       <c r="J23">
         <v>48</v>
       </c>
-      <c r="K23" t="s">
-        <v>92</v>
+      <c r="K23">
+        <v>5964</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>698</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>236</v>
+      <c r="C24" s="2">
+        <v>6595</v>
       </c>
       <c r="D24" s="2">
         <v>24</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>376</v>
+      <c r="E24" s="2">
+        <v>6488</v>
       </c>
       <c r="F24">
         <v>25</v>
       </c>
-      <c r="G24" t="s">
-        <v>504</v>
+      <c r="G24">
+        <v>6578</v>
       </c>
       <c r="H24">
         <v>21</v>
       </c>
-      <c r="I24" t="s">
-        <v>624</v>
+      <c r="I24">
+        <v>6778</v>
       </c>
       <c r="J24">
         <v>16</v>
       </c>
-      <c r="K24" t="s">
-        <v>95</v>
+      <c r="K24">
+        <v>7088</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>699</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>147</v>
+      <c r="C25" s="2">
+        <v>6592</v>
       </c>
       <c r="D25" s="2">
         <v>23</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>294</v>
+      <c r="E25" s="2">
+        <v>6489</v>
       </c>
       <c r="F25">
         <v>31</v>
       </c>
-      <c r="G25" t="s">
-        <v>426</v>
+      <c r="G25">
+        <v>6442</v>
       </c>
       <c r="H25">
         <v>32</v>
       </c>
-      <c r="I25" t="s">
-        <v>548</v>
+      <c r="I25">
+        <v>6478</v>
       </c>
       <c r="J25">
         <v>25</v>
       </c>
-      <c r="K25" t="s">
-        <v>4</v>
+      <c r="K25">
+        <v>6764</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>700</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>279</v>
+      <c r="C26" s="2">
+        <v>6446</v>
       </c>
       <c r="D26" s="2">
         <v>26</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>411</v>
+      <c r="E26" s="2">
+        <v>6441</v>
       </c>
       <c r="F26">
         <v>33</v>
       </c>
-      <c r="G26" t="s">
-        <v>535</v>
+      <c r="G26">
+        <v>6422</v>
       </c>
       <c r="H26">
         <v>35</v>
       </c>
-      <c r="I26" t="s">
-        <v>415</v>
+      <c r="I26">
+        <v>6379</v>
       </c>
       <c r="J26">
         <v>42</v>
       </c>
-      <c r="K26" t="s">
-        <v>134</v>
+      <c r="K26">
+        <v>6221</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>701</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>178</v>
+      <c r="C27" s="2">
+        <v>6444</v>
       </c>
       <c r="D27" s="2">
         <v>25</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>322</v>
+      <c r="E27" s="2">
+        <v>6476</v>
       </c>
       <c r="F27">
         <v>20</v>
       </c>
-      <c r="G27" t="s">
-        <v>455</v>
+      <c r="G27">
+        <v>6652</v>
       </c>
       <c r="H27">
         <v>24</v>
       </c>
-      <c r="I27" t="s">
-        <v>576</v>
+      <c r="I27">
+        <v>6705</v>
       </c>
       <c r="J27">
         <v>28</v>
       </c>
-      <c r="K27" t="s">
-        <v>34</v>
+      <c r="K27">
+        <v>6587</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>702</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>198</v>
+      <c r="C28" s="2">
+        <v>6436</v>
       </c>
       <c r="D28" s="2">
         <v>30</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>339</v>
+      <c r="E28" s="2">
+        <v>6382</v>
       </c>
       <c r="F28">
         <v>29</v>
       </c>
-      <c r="G28" t="s">
-        <v>472</v>
+      <c r="G28">
+        <v>6454</v>
       </c>
       <c r="H28">
         <v>39</v>
       </c>
-      <c r="I28" t="s">
-        <v>592</v>
+      <c r="I28">
+        <v>6324</v>
       </c>
       <c r="J28">
         <v>47</v>
       </c>
-      <c r="K28" t="s">
-        <v>53</v>
+      <c r="K28">
+        <v>5965</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>703</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>259</v>
+      <c r="C29" s="2">
+        <v>6375</v>
       </c>
       <c r="D29" s="2">
         <v>33</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>128</v>
+      <c r="E29" s="2">
+        <v>6371</v>
       </c>
       <c r="F29">
         <v>37</v>
       </c>
-      <c r="G29" t="s">
-        <v>521</v>
+      <c r="G29">
+        <v>6344</v>
       </c>
       <c r="H29">
         <v>34</v>
       </c>
-      <c r="I29" t="s">
-        <v>415</v>
+      <c r="I29">
+        <v>6379</v>
       </c>
       <c r="J29">
         <v>33</v>
       </c>
-      <c r="K29" t="s">
-        <v>116</v>
+      <c r="K29">
+        <v>6480</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>704</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>254</v>
+      <c r="C30" s="2">
+        <v>6374</v>
       </c>
       <c r="D30" s="2">
         <v>32</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>254</v>
+      <c r="E30" s="2">
+        <v>6374</v>
       </c>
       <c r="F30">
         <v>35</v>
       </c>
-      <c r="G30" t="s">
-        <v>259</v>
+      <c r="G30">
+        <v>6375</v>
       </c>
       <c r="H30">
         <v>36</v>
       </c>
-      <c r="I30" t="s">
-        <v>259</v>
+      <c r="I30">
+        <v>6375</v>
       </c>
       <c r="J30">
         <v>27</v>
       </c>
-      <c r="K30" t="s">
-        <v>112</v>
+      <c r="K30">
+        <v>6666</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>705</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>145</v>
+      <c r="C31" s="2">
+        <v>6354</v>
       </c>
       <c r="D31" s="2">
         <v>36</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>291</v>
+      <c r="E31" s="2">
+        <v>6310</v>
       </c>
       <c r="F31">
         <v>34</v>
       </c>
-      <c r="G31" t="s">
-        <v>423</v>
+      <c r="G31">
+        <v>6403</v>
       </c>
       <c r="H31">
         <v>37</v>
       </c>
-      <c r="I31" t="s">
-        <v>545</v>
+      <c r="I31">
+        <v>6361</v>
       </c>
       <c r="J31">
         <v>38</v>
       </c>
-      <c r="K31" t="s">
-        <v>1</v>
+      <c r="K31">
+        <v>6322</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>706</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>247</v>
+      <c r="C32" s="2">
+        <v>6321</v>
       </c>
       <c r="D32" s="2">
         <v>27</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>385</v>
+      <c r="E32" s="2">
+        <v>6430</v>
       </c>
       <c r="F32">
         <v>30</v>
       </c>
-      <c r="G32" t="s">
-        <v>513</v>
+      <c r="G32">
+        <v>6452</v>
       </c>
       <c r="H32">
         <v>25</v>
       </c>
-      <c r="I32" t="s">
-        <v>633</v>
+      <c r="I32">
+        <v>6701</v>
       </c>
       <c r="J32">
         <v>15</v>
       </c>
-      <c r="K32" t="s">
-        <v>105</v>
+      <c r="K32">
+        <v>7143</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>707</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>169</v>
+      <c r="C33" s="2">
+        <v>6300</v>
       </c>
       <c r="D33" s="2">
         <v>28</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>315</v>
+      <c r="E33" s="2">
+        <v>6419</v>
       </c>
       <c r="F33">
         <v>22</v>
       </c>
-      <c r="G33" t="s">
-        <v>447</v>
+      <c r="G33">
+        <v>6635</v>
       </c>
       <c r="H33">
         <v>17</v>
       </c>
-      <c r="I33" t="s">
-        <v>567</v>
+      <c r="I33">
+        <v>6952</v>
       </c>
       <c r="J33">
         <v>24</v>
       </c>
-      <c r="K33" t="s">
-        <v>27</v>
+      <c r="K33">
+        <v>6849</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>708</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>283</v>
+      <c r="C34" s="2">
+        <v>6293</v>
       </c>
       <c r="D34" s="2">
         <v>31</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>415</v>
+      <c r="E34" s="2">
+        <v>6379</v>
       </c>
       <c r="F34">
         <v>28</v>
       </c>
-      <c r="G34" t="s">
-        <v>472</v>
+      <c r="G34">
+        <v>6454</v>
       </c>
       <c r="H34">
         <v>29</v>
       </c>
-      <c r="I34" t="s">
-        <v>659</v>
+      <c r="I34">
+        <v>6545</v>
       </c>
       <c r="J34">
         <v>37</v>
       </c>
-      <c r="K34" t="s">
-        <v>138</v>
+      <c r="K34">
+        <v>6355</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>709</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>261</v>
+      <c r="C35" s="2">
+        <v>6262</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>397</v>
+      <c r="E35" s="2">
+        <v>6343</v>
       </c>
       <c r="F35">
         <v>26</v>
       </c>
-      <c r="G35" t="s">
-        <v>522</v>
+      <c r="G35">
+        <v>6572</v>
       </c>
       <c r="H35">
         <v>22</v>
       </c>
-      <c r="I35" t="s">
-        <v>643</v>
+      <c r="I35">
+        <v>6739</v>
       </c>
       <c r="J35">
         <v>30</v>
       </c>
-      <c r="K35" t="s">
-        <v>118</v>
+      <c r="K35">
+        <v>6546</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>710</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>268</v>
+      <c r="C36" s="2">
+        <v>6253</v>
       </c>
       <c r="D36" s="2">
         <v>40</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>404</v>
+      <c r="E36" s="2">
+        <v>6167</v>
       </c>
       <c r="F36">
         <v>45</v>
       </c>
-      <c r="G36" t="s">
-        <v>528</v>
+      <c r="G36">
+        <v>6003</v>
       </c>
       <c r="H36">
         <v>46</v>
       </c>
-      <c r="I36" t="s">
-        <v>650</v>
+      <c r="I36">
+        <v>6068</v>
       </c>
       <c r="J36">
         <v>52</v>
       </c>
-      <c r="K36" t="s">
-        <v>123</v>
+      <c r="K36">
+        <v>5809</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>711</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>148</v>
+      <c r="C37" s="2">
+        <v>6223</v>
       </c>
       <c r="D37" s="2">
         <v>47</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>295</v>
+      <c r="E37" s="2">
+        <v>6000</v>
       </c>
       <c r="F37">
         <v>48</v>
       </c>
-      <c r="G37" t="s">
-        <v>92</v>
+      <c r="G37">
+        <v>5964</v>
       </c>
       <c r="H37">
         <v>50</v>
       </c>
-      <c r="I37" t="s">
-        <v>549</v>
+      <c r="I37">
+        <v>5977</v>
       </c>
       <c r="J37">
         <v>45</v>
       </c>
-      <c r="K37" t="s">
-        <v>5</v>
+      <c r="K37">
+        <v>6021</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>712</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>166</v>
+      <c r="C38" s="2">
+        <v>6199</v>
       </c>
       <c r="D38" s="2">
         <v>43</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>242</v>
+      <c r="E38" s="2">
+        <v>6105</v>
       </c>
       <c r="F38">
         <v>41</v>
       </c>
-      <c r="G38" t="s">
-        <v>444</v>
+      <c r="G38">
+        <v>6087</v>
       </c>
       <c r="H38">
         <v>42</v>
       </c>
-      <c r="I38" t="s">
-        <v>565</v>
+      <c r="I38">
+        <v>6218</v>
       </c>
       <c r="J38">
         <v>79</v>
       </c>
-      <c r="K38" t="s">
-        <v>23</v>
+      <c r="K38">
+        <v>5312</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>713</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>263</v>
+      <c r="C39" s="2">
+        <v>6198</v>
       </c>
       <c r="D39" s="2">
         <v>39</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>399</v>
+      <c r="E39" s="2">
+        <v>6173</v>
       </c>
       <c r="F39">
         <v>40</v>
       </c>
-      <c r="G39" t="s">
-        <v>523</v>
+      <c r="G39">
+        <v>6098</v>
       </c>
       <c r="H39">
         <v>45</v>
       </c>
-      <c r="I39" t="s">
-        <v>645</v>
+      <c r="I39">
+        <v>6078</v>
       </c>
       <c r="J39">
         <v>46</v>
       </c>
-      <c r="K39" t="s">
-        <v>120</v>
+      <c r="K39">
+        <v>5969</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>714</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>278</v>
+      <c r="C40" s="2">
+        <v>6192</v>
       </c>
       <c r="D40" s="2">
         <v>38</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>278</v>
+      <c r="E40" s="2">
+        <v>6192</v>
       </c>
       <c r="F40">
         <v>38</v>
       </c>
-      <c r="G40" t="s">
-        <v>534</v>
+      <c r="G40">
+        <v>6168</v>
       </c>
       <c r="H40">
         <v>43</v>
       </c>
-      <c r="I40" t="s">
-        <v>534</v>
+      <c r="I40">
+        <v>6168</v>
       </c>
       <c r="J40">
         <v>31</v>
       </c>
-      <c r="K40" t="s">
-        <v>133</v>
+      <c r="K40">
+        <v>6519</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>715</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>251</v>
+      <c r="C41" s="2">
+        <v>6182</v>
       </c>
       <c r="D41" s="2">
         <v>42</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>389</v>
+      <c r="E41" s="2">
+        <v>6123</v>
       </c>
       <c r="F41">
         <v>46</v>
       </c>
-      <c r="G41" t="s">
-        <v>331</v>
+      <c r="G41">
+        <v>5973</v>
       </c>
       <c r="H41">
         <v>57</v>
       </c>
-      <c r="I41" t="s">
-        <v>607</v>
+      <c r="I41">
+        <v>5835</v>
       </c>
       <c r="J41">
         <v>51</v>
       </c>
-      <c r="K41" t="s">
-        <v>109</v>
+      <c r="K41">
+        <v>5822</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>716</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2">
         <v>41</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>284</v>
+      <c r="C42" s="2">
+        <v>6174</v>
       </c>
       <c r="D42" s="2">
         <v>44</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>416</v>
+      <c r="E42" s="2">
+        <v>6096</v>
       </c>
       <c r="F42">
         <v>47</v>
       </c>
-      <c r="G42" t="s">
-        <v>539</v>
+      <c r="G42">
+        <v>5971</v>
       </c>
       <c r="H42">
         <v>49</v>
       </c>
-      <c r="I42" t="s">
-        <v>660</v>
+      <c r="I42">
+        <v>5987</v>
       </c>
       <c r="J42">
         <v>60</v>
       </c>
-      <c r="K42" t="s">
-        <v>139</v>
+      <c r="K42">
+        <v>5623</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>717</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>222</v>
+      <c r="C43" s="2">
+        <v>6149</v>
       </c>
       <c r="D43" s="2">
         <v>50</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>360</v>
+      <c r="E43" s="2">
+        <v>5952</v>
       </c>
       <c r="F43">
         <v>52</v>
       </c>
-      <c r="G43" t="s">
-        <v>493</v>
+      <c r="G43">
+        <v>5902</v>
       </c>
       <c r="H43">
         <v>60</v>
       </c>
-      <c r="I43" t="s">
-        <v>613</v>
+      <c r="I43">
+        <v>5813</v>
       </c>
       <c r="J43">
         <v>71</v>
       </c>
-      <c r="K43" t="s">
-        <v>44</v>
+      <c r="K43">
+        <v>5426</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>718</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2">
         <v>43</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>180</v>
+      <c r="C44" s="2">
+        <v>6125</v>
       </c>
       <c r="D44" s="2">
         <v>37</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>324</v>
+      <c r="E44" s="2">
+        <v>6260</v>
       </c>
       <c r="F44">
         <v>36</v>
       </c>
-      <c r="G44" t="s">
-        <v>457</v>
+      <c r="G44">
+        <v>6357</v>
       </c>
       <c r="H44">
         <v>31</v>
       </c>
-      <c r="I44" t="s">
-        <v>578</v>
+      <c r="I44">
+        <v>6481</v>
       </c>
       <c r="J44">
         <v>35</v>
       </c>
-      <c r="K44" t="s">
-        <v>36</v>
+      <c r="K44">
+        <v>6416</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>719</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2">
         <v>44</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>262</v>
+      <c r="C45" s="2">
+        <v>6118</v>
       </c>
       <c r="D45" s="2">
         <v>51</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>398</v>
+      <c r="E45" s="2">
+        <v>5948</v>
       </c>
       <c r="F45">
         <v>62</v>
       </c>
-      <c r="G45" t="s">
-        <v>203</v>
+      <c r="G45">
+        <v>5758</v>
       </c>
       <c r="H45">
         <v>63</v>
       </c>
-      <c r="I45" t="s">
-        <v>644</v>
+      <c r="I45">
+        <v>5768</v>
       </c>
       <c r="J45">
         <v>44</v>
       </c>
-      <c r="K45" t="s">
-        <v>119</v>
+      <c r="K45">
+        <v>6060</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>720</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2">
         <v>45</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>242</v>
+      <c r="C46" s="2">
+        <v>6105</v>
       </c>
       <c r="D46" s="2">
         <v>41</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>380</v>
+      <c r="E46" s="2">
+        <v>6141</v>
       </c>
       <c r="F46">
         <v>43</v>
       </c>
-      <c r="G46" t="s">
-        <v>509</v>
+      <c r="G46">
+        <v>6071</v>
       </c>
       <c r="H46">
         <v>48</v>
       </c>
-      <c r="I46" t="s">
-        <v>628</v>
+      <c r="I46">
+        <v>5992</v>
       </c>
       <c r="J46">
         <v>65</v>
       </c>
-      <c r="K46" t="s">
-        <v>100</v>
+      <c r="K46">
+        <v>5507</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>721</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2">
         <v>47</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>157</v>
+      <c r="C47" s="2">
+        <v>6086</v>
       </c>
       <c r="D47" s="2">
         <v>29</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>304</v>
+      <c r="E47" s="2">
+        <v>6388</v>
       </c>
       <c r="F47">
         <v>24</v>
       </c>
-      <c r="G47" t="s">
-        <v>435</v>
+      <c r="G47">
+        <v>6599</v>
       </c>
       <c r="H47">
         <v>26</v>
       </c>
-      <c r="I47" t="s">
-        <v>557</v>
+      <c r="I47">
+        <v>6650</v>
       </c>
       <c r="J47">
         <v>29</v>
       </c>
-      <c r="K47" t="s">
-        <v>14</v>
+      <c r="K47">
+        <v>6562</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>722</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2">
         <v>48</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>255</v>
+      <c r="C48" s="2">
+        <v>6070</v>
       </c>
       <c r="D48" s="2">
         <v>52</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>392</v>
+      <c r="E48" s="2">
+        <v>5945</v>
       </c>
       <c r="F48">
         <v>57</v>
       </c>
-      <c r="G48" t="s">
-        <v>517</v>
+      <c r="G48">
+        <v>5825</v>
       </c>
       <c r="H48">
         <v>71</v>
       </c>
-      <c r="I48" t="s">
-        <v>638</v>
+      <c r="I48">
+        <v>5528</v>
       </c>
       <c r="J48">
         <v>90</v>
       </c>
-      <c r="K48" t="s">
-        <v>113</v>
+      <c r="K48">
+        <v>5033</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>723</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2">
         <v>49</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>182</v>
+      <c r="C49" s="2">
+        <v>6046</v>
       </c>
       <c r="D49" s="2">
         <v>61</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>326</v>
+      <c r="E49" s="2">
+        <v>5762</v>
       </c>
       <c r="F49">
         <v>65</v>
       </c>
-      <c r="G49" t="s">
-        <v>459</v>
+      <c r="G49">
+        <v>5621</v>
       </c>
       <c r="H49">
         <v>69</v>
       </c>
-      <c r="I49" t="s">
-        <v>580</v>
+      <c r="I49">
+        <v>5546</v>
       </c>
       <c r="J49">
         <v>34</v>
       </c>
-      <c r="K49" t="s">
-        <v>38</v>
+      <c r="K49">
+        <v>6466</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>724</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2">
         <v>50</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>187</v>
+      <c r="C50" s="2">
+        <v>6028</v>
       </c>
       <c r="D50" s="2">
         <v>48</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>331</v>
+      <c r="E50" s="2">
+        <v>5973</v>
       </c>
       <c r="F50">
         <v>44</v>
       </c>
-      <c r="G50" t="s">
-        <v>273</v>
+      <c r="G50">
+        <v>6008</v>
       </c>
       <c r="H50">
         <v>51</v>
       </c>
-      <c r="I50" t="s">
-        <v>583</v>
+      <c r="I50">
+        <v>5976</v>
       </c>
       <c r="J50">
         <v>49</v>
       </c>
-      <c r="K50" t="s">
-        <v>43</v>
+      <c r="K50">
+        <v>5865</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>725</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2">
         <v>51</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>5</v>
+      <c r="C51" s="2">
+        <v>6021</v>
       </c>
       <c r="D51" s="2">
         <v>45</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>353</v>
+      <c r="E51" s="2">
+        <v>6083</v>
       </c>
       <c r="F51">
         <v>39</v>
       </c>
-      <c r="G51" t="s">
-        <v>242</v>
+      <c r="G51">
+        <v>6105</v>
       </c>
       <c r="H51">
         <v>41</v>
       </c>
-      <c r="I51" t="s">
-        <v>608</v>
+      <c r="I51">
+        <v>6239</v>
       </c>
       <c r="J51">
         <v>32</v>
       </c>
-      <c r="K51" t="s">
-        <v>73</v>
+      <c r="K51">
+        <v>6515</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>726</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2">
         <v>52</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>273</v>
+      <c r="C52" s="2">
+        <v>6008</v>
       </c>
       <c r="D52" s="2">
         <v>46</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>407</v>
+      <c r="E52" s="2">
+        <v>6072</v>
       </c>
       <c r="F52">
         <v>32</v>
       </c>
-      <c r="G52" t="s">
-        <v>530</v>
+      <c r="G52">
+        <v>6424</v>
       </c>
       <c r="H52">
         <v>33</v>
       </c>
-      <c r="I52" t="s">
-        <v>653</v>
+      <c r="I52">
+        <v>6474</v>
       </c>
       <c r="J52">
         <v>36</v>
       </c>
-      <c r="K52" t="s">
-        <v>128</v>
+      <c r="K52">
+        <v>6371</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>727</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2">
         <v>53</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>224</v>
+      <c r="C53" s="2">
+        <v>5940</v>
       </c>
       <c r="D53" s="2">
         <v>53</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>362</v>
+      <c r="E53" s="2">
+        <v>5933</v>
       </c>
       <c r="F53">
         <v>54</v>
       </c>
-      <c r="G53" t="s">
-        <v>495</v>
+      <c r="G53">
+        <v>5850</v>
       </c>
       <c r="H53">
         <v>68</v>
       </c>
-      <c r="I53" t="s">
-        <v>615</v>
+      <c r="I53">
+        <v>5560</v>
       </c>
       <c r="J53">
         <v>88</v>
       </c>
-      <c r="K53" t="s">
-        <v>81</v>
+      <c r="K53">
+        <v>5046</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>728</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2">
         <v>54</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>216</v>
+      <c r="C54" s="2">
+        <v>5895</v>
       </c>
       <c r="D54" s="2">
         <v>57</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>352</v>
+      <c r="E54" s="2">
+        <v>5875</v>
       </c>
       <c r="F54">
         <v>56</v>
       </c>
-      <c r="G54" t="s">
-        <v>488</v>
+      <c r="G54">
+        <v>5838</v>
       </c>
       <c r="H54">
         <v>58</v>
       </c>
-      <c r="I54" t="s">
-        <v>607</v>
+      <c r="I54">
+        <v>5835</v>
       </c>
       <c r="J54">
         <v>41</v>
       </c>
-      <c r="K54" t="s">
-        <v>72</v>
+      <c r="K54">
+        <v>6267</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>729</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2">
         <v>55</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>188</v>
+      <c r="C55" s="2">
+        <v>5893</v>
       </c>
       <c r="D55" s="2">
         <v>63</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>332</v>
+      <c r="E55" s="2">
+        <v>5739</v>
       </c>
       <c r="F55">
         <v>66</v>
       </c>
-      <c r="G55" t="s">
-        <v>464</v>
+      <c r="G55">
+        <v>5611</v>
       </c>
       <c r="H55">
         <v>72</v>
       </c>
-      <c r="I55" t="s">
-        <v>584</v>
+      <c r="I55">
+        <v>5517</v>
       </c>
       <c r="J55">
         <v>72</v>
       </c>
-      <c r="K55" t="s">
-        <v>44</v>
+      <c r="K55">
+        <v>5426</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>730</v>
+        <v>65</v>
       </c>
       <c r="B56" s="2">
         <v>56</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>211</v>
+      <c r="C56" s="2">
+        <v>5890</v>
       </c>
       <c r="D56" s="2">
         <v>56</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>211</v>
+      <c r="E56" s="2">
+        <v>5890</v>
       </c>
       <c r="F56">
         <v>76</v>
       </c>
-      <c r="G56" t="s">
-        <v>483</v>
+      <c r="G56">
+        <v>5311</v>
       </c>
       <c r="H56">
         <v>73</v>
       </c>
-      <c r="I56" t="s">
-        <v>603</v>
+      <c r="I56">
+        <v>5510</v>
       </c>
       <c r="J56">
         <v>75</v>
       </c>
-      <c r="K56" t="s">
-        <v>66</v>
+      <c r="K56">
+        <v>5374</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>731</v>
+        <v>66</v>
       </c>
       <c r="B57" s="2">
         <v>57</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>234</v>
+      <c r="C57" s="2">
+        <v>5888</v>
       </c>
       <c r="D57" s="2">
         <v>55</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>374</v>
+      <c r="E57" s="2">
+        <v>5891</v>
       </c>
       <c r="F57">
         <v>64</v>
       </c>
-      <c r="G57" t="s">
-        <v>503</v>
+      <c r="G57">
+        <v>5629</v>
       </c>
       <c r="H57">
         <v>66</v>
       </c>
-      <c r="I57" t="s">
-        <v>257</v>
+      <c r="I57">
+        <v>5648</v>
       </c>
       <c r="J57">
         <v>67</v>
       </c>
-      <c r="K57" t="s">
-        <v>93</v>
+      <c r="K57">
+        <v>5477</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>732</v>
+        <v>67</v>
       </c>
       <c r="B58" s="2">
         <v>58</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>151</v>
+      <c r="C58" s="2">
+        <v>5886</v>
       </c>
       <c r="D58" s="2">
         <v>54</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>298</v>
+      <c r="E58" s="2">
+        <v>5915</v>
       </c>
       <c r="F58">
         <v>51</v>
       </c>
-      <c r="G58" t="s">
-        <v>429</v>
+      <c r="G58">
+        <v>5920</v>
       </c>
       <c r="H58">
         <v>53</v>
       </c>
-      <c r="I58" t="s">
-        <v>552</v>
+      <c r="I58">
+        <v>5921</v>
       </c>
       <c r="J58">
         <v>43</v>
       </c>
-      <c r="K58" t="s">
-        <v>8</v>
+      <c r="K58">
+        <v>6064</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>733</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2">
         <v>59</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>200</v>
+      <c r="C59" s="2">
+        <v>5860</v>
       </c>
       <c r="D59" s="2">
         <v>72</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>29</v>
+      <c r="E59" s="2">
+        <v>5504</v>
       </c>
       <c r="F59">
         <v>91</v>
       </c>
-      <c r="G59" t="s">
-        <v>473</v>
+      <c r="G59">
+        <v>5181</v>
       </c>
       <c r="H59">
         <v>104</v>
       </c>
-      <c r="I59" t="s">
-        <v>594</v>
+      <c r="I59">
+        <v>4871</v>
       </c>
       <c r="J59">
         <v>84</v>
       </c>
-      <c r="K59" t="s">
-        <v>55</v>
+      <c r="K59">
+        <v>5142</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>734</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2">
         <v>60</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>123</v>
+      <c r="C60" s="2">
+        <v>5809</v>
       </c>
       <c r="D60" s="2">
         <v>60</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>354</v>
+      <c r="E60" s="2">
+        <v>5790</v>
       </c>
       <c r="F60">
         <v>60</v>
       </c>
-      <c r="G60" t="s">
-        <v>489</v>
+      <c r="G60">
+        <v>5819</v>
       </c>
       <c r="H60">
         <v>54</v>
       </c>
-      <c r="I60" t="s">
-        <v>609</v>
+      <c r="I60">
+        <v>5919</v>
       </c>
       <c r="J60">
         <v>57</v>
       </c>
-      <c r="K60" t="s">
-        <v>74</v>
+      <c r="K60">
+        <v>5671</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>735</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2">
         <v>61</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>111</v>
+      <c r="C61" s="2">
+        <v>5779</v>
       </c>
       <c r="D61" s="2">
         <v>62</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>314</v>
+      <c r="E61" s="2">
+        <v>5752</v>
       </c>
       <c r="F61">
         <v>58</v>
       </c>
-      <c r="G61" t="s">
-        <v>446</v>
+      <c r="G61">
+        <v>5823</v>
       </c>
       <c r="H61">
         <v>59</v>
       </c>
-      <c r="I61" t="s">
-        <v>109</v>
+      <c r="I61">
+        <v>5822</v>
       </c>
       <c r="J61">
         <v>50</v>
       </c>
-      <c r="K61" t="s">
-        <v>26</v>
+      <c r="K61">
+        <v>5857</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>736</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2">
         <v>62</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>203</v>
+      <c r="C62" s="2">
+        <v>5758</v>
       </c>
       <c r="D62" s="2">
         <v>69</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>342</v>
+      <c r="E62" s="2">
+        <v>5620</v>
       </c>
       <c r="F62">
         <v>75</v>
       </c>
-      <c r="G62" t="s">
-        <v>476</v>
+      <c r="G62">
+        <v>5324</v>
       </c>
       <c r="H62">
         <v>91</v>
       </c>
-      <c r="I62" t="s">
-        <v>596</v>
+      <c r="I62">
+        <v>5145</v>
       </c>
       <c r="J62">
         <v>110</v>
       </c>
-      <c r="K62" t="s">
-        <v>58</v>
+      <c r="K62">
+        <v>4775</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>737</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2">
         <v>63</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>253</v>
+      <c r="C63" s="2">
+        <v>5743</v>
       </c>
       <c r="D63" s="2">
         <v>64</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>391</v>
+      <c r="E63" s="2">
+        <v>5681</v>
       </c>
       <c r="F63">
         <v>70</v>
       </c>
-      <c r="G63" t="s">
-        <v>516</v>
+      <c r="G63">
+        <v>5493</v>
       </c>
       <c r="H63">
         <v>70</v>
       </c>
-      <c r="I63" t="s">
-        <v>637</v>
+      <c r="I63">
+        <v>5538</v>
       </c>
       <c r="J63">
         <v>54</v>
       </c>
-      <c r="K63" t="s">
-        <v>111</v>
+      <c r="K63">
+        <v>5779</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>738</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2">
         <v>65</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>248</v>
+      <c r="C64" s="2">
+        <v>5697</v>
       </c>
       <c r="D64" s="2">
         <v>65</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>386</v>
+      <c r="E64" s="2">
+        <v>5663</v>
       </c>
       <c r="F64">
         <v>63</v>
       </c>
-      <c r="G64" t="s">
-        <v>514</v>
+      <c r="G64">
+        <v>5715</v>
       </c>
       <c r="H64">
         <v>64</v>
       </c>
-      <c r="I64" t="s">
-        <v>253</v>
+      <c r="I64">
+        <v>5743</v>
       </c>
       <c r="J64">
         <v>55</v>
       </c>
-      <c r="K64" t="s">
-        <v>106</v>
+      <c r="K64">
+        <v>5776</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>739</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2">
         <v>66</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>149</v>
+      <c r="C65" s="2">
+        <v>5693</v>
       </c>
       <c r="D65" s="2">
         <v>77</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>296</v>
+      <c r="E65" s="2">
+        <v>5410</v>
       </c>
       <c r="F65">
         <v>89</v>
       </c>
-      <c r="G65" t="s">
-        <v>427</v>
+      <c r="G65">
+        <v>5195</v>
       </c>
       <c r="H65">
         <v>94</v>
       </c>
-      <c r="I65" t="s">
-        <v>550</v>
+      <c r="I65">
+        <v>5123</v>
       </c>
       <c r="J65">
         <v>85</v>
       </c>
-      <c r="K65" t="s">
-        <v>6</v>
+      <c r="K65">
+        <v>5101</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>740</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2">
         <v>67</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>250</v>
+      <c r="C66" s="2">
+        <v>5653</v>
       </c>
       <c r="D66" s="2">
         <v>75</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>388</v>
+      <c r="E66" s="2">
+        <v>5472</v>
       </c>
       <c r="F66">
         <v>80</v>
       </c>
-      <c r="G66" t="s">
-        <v>515</v>
+      <c r="G66">
+        <v>5269</v>
       </c>
       <c r="H66">
         <v>92</v>
       </c>
-      <c r="I66" t="s">
-        <v>635</v>
+      <c r="I66">
+        <v>5132</v>
       </c>
       <c r="J66">
         <v>81</v>
       </c>
-      <c r="K66" t="s">
-        <v>108</v>
+      <c r="K66">
+        <v>5292</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>741</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2">
         <v>68</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>257</v>
+      <c r="C67" s="2">
+        <v>5648</v>
       </c>
       <c r="D67" s="2">
         <v>59</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>394</v>
+      <c r="E67" s="2">
+        <v>5810</v>
       </c>
       <c r="F67">
         <v>49</v>
       </c>
-      <c r="G67" t="s">
-        <v>519</v>
+      <c r="G67">
+        <v>5963</v>
       </c>
       <c r="H67">
         <v>56</v>
       </c>
-      <c r="I67" t="s">
-        <v>640</v>
+      <c r="I67">
+        <v>5856</v>
       </c>
       <c r="J67">
         <v>68</v>
       </c>
-      <c r="K67" t="s">
-        <v>114</v>
+      <c r="K67">
+        <v>5464</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>742</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2">
         <v>69</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>249</v>
+      <c r="C68" s="2">
+        <v>5631</v>
       </c>
       <c r="D68" s="2">
         <v>71</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>387</v>
+      <c r="E68" s="2">
+        <v>5524</v>
       </c>
       <c r="F68">
         <v>72</v>
       </c>
-      <c r="G68" t="s">
-        <v>199</v>
+      <c r="G68">
+        <v>5430</v>
       </c>
       <c r="H68">
         <v>82</v>
       </c>
-      <c r="I68" t="s">
-        <v>634</v>
+      <c r="I68">
+        <v>5279</v>
       </c>
       <c r="J68">
         <v>92</v>
       </c>
-      <c r="K68" t="s">
-        <v>107</v>
+      <c r="K68">
+        <v>4985</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>743</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2">
         <v>70</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>256</v>
+      <c r="C69" s="2">
+        <v>5603</v>
       </c>
       <c r="D69" s="2">
         <v>78</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>393</v>
+      <c r="E69" s="2">
+        <v>5398</v>
       </c>
       <c r="F69">
         <v>73</v>
       </c>
-      <c r="G69" t="s">
-        <v>518</v>
+      <c r="G69">
+        <v>5395</v>
       </c>
       <c r="H69">
         <v>86</v>
       </c>
-      <c r="I69" t="s">
-        <v>639</v>
+      <c r="I69">
+        <v>5177</v>
       </c>
       <c r="J69">
         <v>106</v>
       </c>
-      <c r="K69" t="s">
-        <v>18</v>
+      <c r="K69">
+        <v>4813</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>744</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2">
         <v>71</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>226</v>
+      <c r="C70" s="2">
+        <v>5529</v>
       </c>
       <c r="D70" s="2">
         <v>67</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>365</v>
+      <c r="E70" s="2">
+        <v>5640</v>
       </c>
       <c r="F70">
         <v>55</v>
       </c>
-      <c r="G70" t="s">
-        <v>488</v>
+      <c r="G70">
+        <v>5838</v>
       </c>
       <c r="H70">
         <v>55</v>
       </c>
-      <c r="I70" t="s">
-        <v>617</v>
+      <c r="I70">
+        <v>5897</v>
       </c>
       <c r="J70">
         <v>53</v>
       </c>
-      <c r="K70" t="s">
-        <v>84</v>
+      <c r="K70">
+        <v>5791</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>745</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2">
         <v>72</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>225</v>
+      <c r="C71" s="2">
+        <v>5525</v>
       </c>
       <c r="D71" s="2">
         <v>70</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>363</v>
+      <c r="E71" s="2">
+        <v>5566</v>
       </c>
       <c r="F71">
         <v>68</v>
       </c>
-      <c r="G71" t="s">
-        <v>225</v>
+      <c r="G71">
+        <v>5525</v>
       </c>
       <c r="H71">
         <v>67</v>
       </c>
-      <c r="I71" t="s">
-        <v>616</v>
+      <c r="I71">
+        <v>5615</v>
       </c>
       <c r="J71">
         <v>78</v>
       </c>
-      <c r="K71" t="s">
-        <v>82</v>
+      <c r="K71">
+        <v>5340</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>746</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2">
         <v>73</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>54</v>
+      <c r="C72" s="2">
+        <v>5523</v>
       </c>
       <c r="D72" s="2">
         <v>81</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>366</v>
+      <c r="E72" s="2">
+        <v>5347</v>
       </c>
       <c r="F72">
         <v>83</v>
       </c>
-      <c r="G72" t="s">
-        <v>497</v>
+      <c r="G72">
+        <v>5237</v>
       </c>
       <c r="H72">
         <v>88</v>
       </c>
-      <c r="I72" t="s">
-        <v>348</v>
+      <c r="I72">
+        <v>5161</v>
       </c>
       <c r="J72">
         <v>80</v>
       </c>
-      <c r="K72" t="s">
-        <v>85</v>
+      <c r="K72">
+        <v>5299</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>747</v>
+        <v>82</v>
       </c>
       <c r="B73" s="2">
         <v>74</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>274</v>
+      <c r="C73" s="2">
+        <v>5467</v>
       </c>
       <c r="D73" s="2">
         <v>80</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>408</v>
+      <c r="E73" s="2">
+        <v>5352</v>
       </c>
       <c r="F73">
         <v>96</v>
       </c>
-      <c r="G73" t="s">
-        <v>531</v>
+      <c r="G73">
+        <v>5041</v>
       </c>
       <c r="H73">
         <v>100</v>
       </c>
-      <c r="I73" t="s">
-        <v>194</v>
+      <c r="I73">
+        <v>4996</v>
       </c>
       <c r="J73">
         <v>125</v>
       </c>
-      <c r="K73" t="s">
-        <v>129</v>
+      <c r="K73">
+        <v>4380</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>748</v>
+        <v>83</v>
       </c>
       <c r="B74" s="2">
         <v>75</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>201</v>
+      <c r="C74" s="2">
+        <v>5432</v>
       </c>
       <c r="D74" s="2">
         <v>82</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>340</v>
+      <c r="E74" s="2">
+        <v>5321</v>
       </c>
       <c r="F74">
         <v>77</v>
       </c>
-      <c r="G74" t="s">
-        <v>474</v>
+      <c r="G74">
+        <v>5293</v>
       </c>
       <c r="H74">
         <v>74</v>
       </c>
-      <c r="I74" t="s">
-        <v>595</v>
+      <c r="I74">
+        <v>5488</v>
       </c>
       <c r="J74">
         <v>58</v>
       </c>
-      <c r="K74" t="s">
-        <v>56</v>
+      <c r="K74">
+        <v>5661</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>749</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2">
         <v>76</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>199</v>
+      <c r="C75" s="2">
+        <v>5430</v>
       </c>
       <c r="D75" s="2">
         <v>76</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>199</v>
+      <c r="E75" s="2">
+        <v>5430</v>
       </c>
       <c r="F75">
         <v>71</v>
       </c>
-      <c r="G75" t="s">
-        <v>388</v>
+      <c r="G75">
+        <v>5472</v>
       </c>
       <c r="H75">
         <v>75</v>
       </c>
-      <c r="I75" t="s">
-        <v>593</v>
+      <c r="I75">
+        <v>5458</v>
       </c>
       <c r="J75">
         <v>64</v>
       </c>
-      <c r="K75" t="s">
-        <v>54</v>
+      <c r="K75">
+        <v>5523</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>750</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2">
         <v>77</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>185</v>
+      <c r="C76" s="2">
+        <v>5425</v>
       </c>
       <c r="D76" s="2">
         <v>83</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>329</v>
+      <c r="E76" s="2">
+        <v>5302</v>
       </c>
       <c r="F76">
         <v>86</v>
       </c>
-      <c r="G76" t="s">
-        <v>462</v>
+      <c r="G76">
+        <v>5230</v>
       </c>
       <c r="H76">
         <v>89</v>
       </c>
-      <c r="I76" t="s">
-        <v>379</v>
+      <c r="I76">
+        <v>5155</v>
       </c>
       <c r="J76">
         <v>95</v>
       </c>
-      <c r="K76" t="s">
-        <v>41</v>
+      <c r="K76">
+        <v>4963</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>751</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2">
         <v>78</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>161</v>
+      <c r="C77" s="2">
+        <v>5386</v>
       </c>
       <c r="D77" s="2">
         <v>93</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>307</v>
+      <c r="E77" s="2">
+        <v>5129</v>
       </c>
       <c r="F77">
         <v>90</v>
       </c>
-      <c r="G77" t="s">
-        <v>439</v>
+      <c r="G77">
+        <v>5182</v>
       </c>
       <c r="H77">
         <v>87</v>
       </c>
-      <c r="I77" t="s">
-        <v>561</v>
+      <c r="I77">
+        <v>5163</v>
       </c>
       <c r="J77">
         <v>107</v>
       </c>
-      <c r="K77" t="s">
-        <v>18</v>
+      <c r="K77">
+        <v>4813</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>752</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2">
         <v>79</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>277</v>
+      <c r="C78" s="2">
+        <v>5373</v>
       </c>
       <c r="D78" s="2">
         <v>74</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>317</v>
+      <c r="E78" s="2">
+        <v>5483</v>
       </c>
       <c r="F78">
         <v>69</v>
       </c>
-      <c r="G78" t="s">
-        <v>533</v>
+      <c r="G78">
+        <v>5500</v>
       </c>
       <c r="H78">
         <v>78</v>
       </c>
-      <c r="I78" t="s">
-        <v>656</v>
+      <c r="I78">
+        <v>5389</v>
       </c>
       <c r="J78">
         <v>77</v>
       </c>
-      <c r="K78" t="s">
-        <v>132</v>
+      <c r="K78">
+        <v>5345</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>753</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2">
         <v>80</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>237</v>
+      <c r="C79" s="2">
+        <v>5339</v>
       </c>
       <c r="D79" s="2">
         <v>35</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>1</v>
+      <c r="E79" s="2">
+        <v>6322</v>
       </c>
       <c r="F79">
         <v>42</v>
       </c>
-      <c r="G79" t="s">
-        <v>505</v>
+      <c r="G79">
+        <v>6084</v>
       </c>
       <c r="H79">
         <v>47</v>
       </c>
-      <c r="I79" t="s">
-        <v>625</v>
+      <c r="I79">
+        <v>6005</v>
       </c>
       <c r="J79">
         <v>56</v>
       </c>
-      <c r="K79" t="s">
-        <v>96</v>
+      <c r="K79">
+        <v>5760</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>754</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2">
         <v>81</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>172</v>
+      <c r="C80" s="2">
+        <v>5323</v>
       </c>
       <c r="D80" s="2">
         <v>73</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>317</v>
+      <c r="E80" s="2">
+        <v>5483</v>
       </c>
       <c r="F80">
         <v>67</v>
       </c>
-      <c r="G80" t="s">
-        <v>449</v>
+      <c r="G80">
+        <v>5569</v>
       </c>
       <c r="H80">
         <v>61</v>
       </c>
-      <c r="I80" t="s">
-        <v>570</v>
+      <c r="I80">
+        <v>5802</v>
       </c>
       <c r="J80">
         <v>66</v>
       </c>
-      <c r="K80" t="s">
-        <v>29</v>
+      <c r="K80">
+        <v>5504</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>755</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2">
         <v>82</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>197</v>
+      <c r="C81" s="2">
+        <v>5287</v>
       </c>
       <c r="D81" s="2">
         <v>79</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>338</v>
+      <c r="E81" s="2">
+        <v>5358</v>
       </c>
       <c r="F81">
         <v>87</v>
       </c>
-      <c r="G81" t="s">
-        <v>471</v>
+      <c r="G81">
+        <v>5227</v>
       </c>
       <c r="H81">
         <v>99</v>
       </c>
-      <c r="I81" t="s">
-        <v>113</v>
+      <c r="I81">
+        <v>5033</v>
       </c>
       <c r="J81">
         <v>70</v>
       </c>
-      <c r="K81" t="s">
-        <v>52</v>
+      <c r="K81">
+        <v>5435</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>756</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2">
         <v>83</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>231</v>
+      <c r="C82" s="2">
+        <v>5285</v>
       </c>
       <c r="D82" s="2">
         <v>94</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>371</v>
+      <c r="E82" s="2">
+        <v>5125</v>
       </c>
       <c r="F82">
         <v>100</v>
       </c>
-      <c r="G82" t="s">
-        <v>500</v>
+      <c r="G82">
+        <v>4955</v>
       </c>
       <c r="H82">
         <v>101</v>
       </c>
-      <c r="I82" t="s">
-        <v>622</v>
+      <c r="I82">
+        <v>4907</v>
       </c>
       <c r="J82">
         <v>102</v>
       </c>
-      <c r="K82" t="s">
-        <v>90</v>
+      <c r="K82">
+        <v>4834</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>757</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2">
         <v>84</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>228</v>
+      <c r="C83" s="2">
+        <v>5274</v>
       </c>
       <c r="D83" s="2">
         <v>89</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>368</v>
+      <c r="E83" s="2">
+        <v>5185</v>
       </c>
       <c r="F83">
         <v>92</v>
       </c>
-      <c r="G83" t="s">
-        <v>286</v>
+      <c r="G83">
+        <v>5175</v>
       </c>
       <c r="H83">
         <v>95</v>
       </c>
-      <c r="I83" t="s">
-        <v>619</v>
+      <c r="I83">
+        <v>5121</v>
       </c>
       <c r="J83">
         <v>118</v>
       </c>
-      <c r="K83" t="s">
-        <v>87</v>
+      <c r="K83">
+        <v>4574</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>758</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2">
         <v>85</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>241</v>
+      <c r="C84" s="2">
+        <v>5265</v>
       </c>
       <c r="D84" s="2">
         <v>91</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>379</v>
+      <c r="E84" s="2">
+        <v>5155</v>
       </c>
       <c r="F84">
         <v>95</v>
       </c>
-      <c r="G84" t="s">
-        <v>508</v>
+      <c r="G84">
+        <v>5074</v>
       </c>
       <c r="H84">
         <v>103</v>
       </c>
-      <c r="I84" t="s">
-        <v>627</v>
+      <c r="I84">
+        <v>4875</v>
       </c>
       <c r="J84">
         <v>82</v>
       </c>
-      <c r="K84" t="s">
-        <v>99</v>
+      <c r="K84">
+        <v>5248</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>759</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2">
         <v>86</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>214</v>
+      <c r="C85" s="2">
+        <v>5261</v>
       </c>
       <c r="D85" s="2">
         <v>92</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>350</v>
+      <c r="E85" s="2">
+        <v>5131</v>
       </c>
       <c r="F85">
         <v>98</v>
       </c>
-      <c r="G85" t="s">
-        <v>486</v>
+      <c r="G85">
+        <v>5004</v>
       </c>
       <c r="H85">
         <v>85</v>
       </c>
-      <c r="I85" t="s">
-        <v>368</v>
+      <c r="I85">
+        <v>5185</v>
       </c>
       <c r="J85">
         <v>89</v>
       </c>
-      <c r="K85" t="s">
-        <v>69</v>
+      <c r="K85">
+        <v>5042</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>760</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2">
         <v>87</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>275</v>
+      <c r="C86" s="2">
+        <v>5247</v>
       </c>
       <c r="D86" s="2">
         <v>68</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>409</v>
+      <c r="E86" s="2">
+        <v>5636</v>
       </c>
       <c r="F86">
         <v>59</v>
       </c>
-      <c r="G86" t="s">
-        <v>109</v>
+      <c r="G86">
+        <v>5822</v>
       </c>
       <c r="H86">
         <v>65</v>
       </c>
-      <c r="I86" t="s">
-        <v>654</v>
+      <c r="I86">
+        <v>5658</v>
       </c>
       <c r="J86">
         <v>59</v>
       </c>
-      <c r="K86" t="s">
-        <v>130</v>
+      <c r="K86">
+        <v>5628</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>761</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2">
         <v>88</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>186</v>
+      <c r="C87" s="2">
+        <v>5211</v>
       </c>
       <c r="D87" s="2">
         <v>84</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>330</v>
+      <c r="E87" s="2">
+        <v>5295</v>
       </c>
       <c r="F87">
         <v>53</v>
       </c>
-      <c r="G87" t="s">
-        <v>463</v>
+      <c r="G87">
+        <v>5872</v>
       </c>
       <c r="H87">
         <v>38</v>
       </c>
-      <c r="I87" t="s">
-        <v>138</v>
+      <c r="I87">
+        <v>6355</v>
       </c>
       <c r="J87">
         <v>73</v>
       </c>
-      <c r="K87" t="s">
-        <v>42</v>
+      <c r="K87">
+        <v>5422</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>762</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2">
         <v>89</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>160</v>
+      <c r="C88" s="2">
+        <v>5208</v>
       </c>
       <c r="D88" s="2">
         <v>85</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>364</v>
+      <c r="E88" s="2">
+        <v>5254</v>
       </c>
       <c r="F88">
         <v>84</v>
       </c>
-      <c r="G88" t="s">
-        <v>496</v>
+      <c r="G88">
+        <v>5235</v>
       </c>
       <c r="H88">
         <v>90</v>
       </c>
-      <c r="I88" t="s">
-        <v>526</v>
+      <c r="I88">
+        <v>5151</v>
       </c>
       <c r="J88">
         <v>99</v>
       </c>
-      <c r="K88" t="s">
-        <v>83</v>
+      <c r="K88">
+        <v>4885</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>763</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2">
         <v>90</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>160</v>
+      <c r="C89" s="2">
+        <v>5208</v>
       </c>
       <c r="D89" s="2">
         <v>87</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>306</v>
+      <c r="E89" s="2">
+        <v>5201</v>
       </c>
       <c r="F89">
         <v>85</v>
       </c>
-      <c r="G89" t="s">
-        <v>438</v>
+      <c r="G89">
+        <v>5234</v>
       </c>
       <c r="H89">
         <v>81</v>
       </c>
-      <c r="I89" t="s">
-        <v>560</v>
+      <c r="I89">
+        <v>5291</v>
       </c>
       <c r="J89">
         <v>116</v>
       </c>
-      <c r="K89" t="s">
-        <v>17</v>
+      <c r="K89">
+        <v>4604</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>764</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2">
         <v>91</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>218</v>
+      <c r="C90" s="2">
+        <v>5197</v>
       </c>
       <c r="D90" s="2">
         <v>88</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>356</v>
+      <c r="E90" s="2">
+        <v>5199</v>
       </c>
       <c r="F90">
         <v>88</v>
       </c>
-      <c r="G90" t="s">
-        <v>490</v>
+      <c r="G90">
+        <v>5225</v>
       </c>
       <c r="H90">
         <v>93</v>
       </c>
-      <c r="I90" t="s">
-        <v>307</v>
+      <c r="I90">
+        <v>5129</v>
       </c>
       <c r="J90">
         <v>97</v>
       </c>
-      <c r="K90" t="s">
-        <v>76</v>
+      <c r="K90">
+        <v>4931</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>765</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2">
         <v>92</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>204</v>
+      <c r="C91" s="2">
+        <v>5192</v>
       </c>
       <c r="D91" s="2">
         <v>96</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>343</v>
+      <c r="E91" s="2">
+        <v>5093</v>
       </c>
       <c r="F91">
         <v>81</v>
       </c>
-      <c r="G91" t="s">
-        <v>477</v>
+      <c r="G91">
+        <v>5262</v>
       </c>
       <c r="H91">
         <v>79</v>
       </c>
-      <c r="I91" t="s">
-        <v>597</v>
+      <c r="I91">
+        <v>5314</v>
       </c>
       <c r="J91">
         <v>76</v>
       </c>
-      <c r="K91" t="s">
-        <v>59</v>
+      <c r="K91">
+        <v>5348</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>766</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2">
         <v>93</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>152</v>
+      <c r="C92" s="2">
+        <v>5191</v>
       </c>
       <c r="D92" s="2">
         <v>86</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>299</v>
+      <c r="E92" s="2">
+        <v>5246</v>
       </c>
       <c r="F92">
         <v>79</v>
       </c>
-      <c r="G92" t="s">
-        <v>430</v>
+      <c r="G92">
+        <v>5273</v>
       </c>
       <c r="H92">
         <v>83</v>
       </c>
-      <c r="I92" t="s">
-        <v>553</v>
+      <c r="I92">
+        <v>5245</v>
       </c>
       <c r="J92">
         <v>93</v>
       </c>
-      <c r="K92" t="s">
-        <v>9</v>
+      <c r="K92">
+        <v>4978</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>767</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2">
         <v>94</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>286</v>
+      <c r="C93" s="2">
+        <v>5175</v>
       </c>
       <c r="D93" s="2">
         <v>95</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>418</v>
+      <c r="E93" s="2">
+        <v>5103</v>
       </c>
       <c r="F93">
         <v>94</v>
       </c>
-      <c r="G93" t="s">
-        <v>508</v>
+      <c r="G93">
+        <v>5074</v>
       </c>
       <c r="H93">
         <v>96</v>
       </c>
-      <c r="I93" t="s">
-        <v>661</v>
+      <c r="I93">
+        <v>5061</v>
       </c>
       <c r="J93">
         <v>63</v>
       </c>
-      <c r="K93" t="s">
-        <v>141</v>
+      <c r="K93">
+        <v>5533</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>768</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2">
         <v>95</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>170</v>
+      <c r="C94" s="2">
+        <v>5082</v>
       </c>
       <c r="D94" s="2">
         <v>97</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>170</v>
+      <c r="E94" s="2">
+        <v>5082</v>
       </c>
       <c r="F94">
         <v>97</v>
       </c>
-      <c r="G94" t="s">
-        <v>165</v>
+      <c r="G94">
+        <v>5011</v>
       </c>
       <c r="H94">
         <v>84</v>
       </c>
-      <c r="I94" t="s">
-        <v>568</v>
+      <c r="I94">
+        <v>5196</v>
       </c>
       <c r="J94" t="e">
         <v>#N/A</v>
@@ -6210,136 +4220,136 @@
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>769</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2">
         <v>96</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>179</v>
+      <c r="C95" s="2">
+        <v>5044</v>
       </c>
       <c r="D95" s="2">
         <v>99</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>323</v>
+      <c r="E95" s="2">
+        <v>4975</v>
       </c>
       <c r="F95">
         <v>107</v>
       </c>
-      <c r="G95" t="s">
-        <v>456</v>
+      <c r="G95">
+        <v>4695</v>
       </c>
       <c r="H95">
         <v>114</v>
       </c>
-      <c r="I95" t="s">
-        <v>577</v>
+      <c r="I95">
+        <v>4513</v>
       </c>
       <c r="J95">
         <v>122</v>
       </c>
-      <c r="K95" t="s">
-        <v>35</v>
+      <c r="K95">
+        <v>4420</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>770</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2">
         <v>97</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>165</v>
+      <c r="C96" s="2">
+        <v>5011</v>
       </c>
       <c r="D96" s="2">
         <v>100</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>311</v>
+      <c r="E96" s="2">
+        <v>4933</v>
       </c>
       <c r="F96">
         <v>105</v>
       </c>
-      <c r="G96" t="s">
-        <v>443</v>
+      <c r="G96">
+        <v>4714</v>
       </c>
       <c r="H96">
         <v>129</v>
       </c>
-      <c r="I96" t="s">
-        <v>564</v>
+      <c r="I96">
+        <v>4217</v>
       </c>
       <c r="J96">
         <v>144</v>
       </c>
-      <c r="K96" t="s">
-        <v>22</v>
+      <c r="K96">
+        <v>3981</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>771</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2">
         <v>98</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>194</v>
+      <c r="C97" s="2">
+        <v>4996</v>
       </c>
       <c r="D97" s="2">
         <v>108</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>336</v>
+      <c r="E97" s="2">
+        <v>4657</v>
       </c>
       <c r="F97">
         <v>131</v>
       </c>
-      <c r="G97" t="s">
-        <v>469</v>
+      <c r="G97">
+        <v>4120</v>
       </c>
       <c r="H97">
         <v>124</v>
       </c>
-      <c r="I97" t="s">
-        <v>590</v>
+      <c r="I97">
+        <v>4276</v>
       </c>
       <c r="J97">
         <v>86</v>
       </c>
-      <c r="K97" t="s">
-        <v>50</v>
+      <c r="K97">
+        <v>5091</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>772</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2">
         <v>99</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>177</v>
+      <c r="C98" s="2">
+        <v>4944</v>
       </c>
       <c r="D98" s="2">
         <v>107</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>321</v>
+      <c r="E98" s="2">
+        <v>4671</v>
       </c>
       <c r="F98">
         <v>128</v>
       </c>
-      <c r="G98" t="s">
-        <v>454</v>
+      <c r="G98">
+        <v>4180</v>
       </c>
       <c r="H98">
         <v>139</v>
       </c>
-      <c r="I98" t="s">
-        <v>575</v>
+      <c r="I98">
+        <v>3916</v>
       </c>
       <c r="J98" t="e">
         <v>#N/A</v>
@@ -6350,194 +4360,194 @@
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>773</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2">
         <v>100</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>245</v>
+      <c r="C99" s="2">
+        <v>4913</v>
       </c>
       <c r="D99" s="2">
         <v>101</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>383</v>
+      <c r="E99" s="2">
+        <v>4880</v>
       </c>
       <c r="F99">
         <v>99</v>
       </c>
-      <c r="G99" t="s">
-        <v>512</v>
+      <c r="G99">
+        <v>4962</v>
       </c>
       <c r="H99">
         <v>107</v>
       </c>
-      <c r="I99" t="s">
-        <v>631</v>
+      <c r="I99">
+        <v>4793</v>
       </c>
       <c r="J99">
         <v>135</v>
       </c>
-      <c r="K99" t="s">
-        <v>103</v>
+      <c r="K99">
+        <v>4156</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>774</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2">
         <v>101</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>212</v>
+      <c r="C100" s="2">
+        <v>4906</v>
       </c>
       <c r="D100" s="2">
         <v>90</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>348</v>
+      <c r="E100" s="2">
+        <v>5161</v>
       </c>
       <c r="F100">
         <v>74</v>
       </c>
-      <c r="G100" t="s">
-        <v>484</v>
+      <c r="G100">
+        <v>5336</v>
       </c>
       <c r="H100">
         <v>80</v>
       </c>
-      <c r="I100" t="s">
-        <v>604</v>
+      <c r="I100">
+        <v>5303</v>
       </c>
       <c r="J100">
         <v>74</v>
       </c>
-      <c r="K100" t="s">
-        <v>67</v>
+      <c r="K100">
+        <v>5414</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>775</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2">
         <v>102</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>168</v>
+      <c r="C101" s="2">
+        <v>4883</v>
       </c>
       <c r="D101" s="2">
         <v>136</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>313</v>
+      <c r="E101" s="2">
+        <v>4141</v>
       </c>
       <c r="F101">
         <v>143</v>
       </c>
-      <c r="G101" t="s">
-        <v>445</v>
+      <c r="G101">
+        <v>3657</v>
       </c>
       <c r="H101">
         <v>153</v>
       </c>
-      <c r="I101" t="s">
-        <v>566</v>
+      <c r="I101">
+        <v>3484</v>
       </c>
       <c r="J101">
         <v>155</v>
       </c>
-      <c r="K101" t="s">
-        <v>25</v>
+      <c r="K101">
+        <v>3528</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>776</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2">
         <v>103</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>176</v>
+      <c r="C102" s="2">
+        <v>4812</v>
       </c>
       <c r="D102" s="2">
         <v>114</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>156</v>
+      <c r="E102" s="2">
+        <v>4559</v>
       </c>
       <c r="F102">
         <v>124</v>
       </c>
-      <c r="G102" t="s">
-        <v>453</v>
+      <c r="G102">
+        <v>4291</v>
       </c>
       <c r="H102">
         <v>127</v>
       </c>
-      <c r="I102" t="s">
-        <v>573</v>
+      <c r="I102">
+        <v>4236</v>
       </c>
       <c r="J102">
         <v>129</v>
       </c>
-      <c r="K102" t="s">
-        <v>32</v>
+      <c r="K102">
+        <v>4297</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>777</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2">
         <v>104</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>192</v>
+      <c r="C103" s="2">
+        <v>4799</v>
       </c>
       <c r="D103" s="2">
         <v>103</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>91</v>
+      <c r="E103" s="2">
+        <v>4758</v>
       </c>
       <c r="F103">
         <v>118</v>
       </c>
-      <c r="G103" t="s">
-        <v>468</v>
+      <c r="G103">
+        <v>4465</v>
       </c>
       <c r="H103">
         <v>134</v>
       </c>
-      <c r="I103" t="s">
-        <v>588</v>
+      <c r="I103">
+        <v>4121</v>
       </c>
       <c r="J103">
         <v>138</v>
       </c>
-      <c r="K103" t="s">
-        <v>48</v>
+      <c r="K103">
+        <v>4114</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>778</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2">
         <v>105</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>217</v>
+      <c r="C104" s="2">
+        <v>4796</v>
       </c>
       <c r="D104" s="2">
         <v>110</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>355</v>
+      <c r="E104" s="2">
+        <v>4623</v>
       </c>
       <c r="F104" t="e">
         <v>#N/A</v>
@@ -6548,253 +4558,253 @@
       <c r="H104">
         <v>102</v>
       </c>
-      <c r="I104" t="s">
-        <v>610</v>
+      <c r="I104">
+        <v>4876</v>
       </c>
       <c r="J104">
         <v>109</v>
       </c>
-      <c r="K104" t="s">
-        <v>75</v>
+      <c r="K104">
+        <v>4787</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>779</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2">
         <v>106</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>288</v>
+      <c r="C105" s="2">
+        <v>4722</v>
       </c>
       <c r="D105" s="2">
         <v>105</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>420</v>
+      <c r="E105" s="2">
+        <v>4724</v>
       </c>
       <c r="F105">
         <v>101</v>
       </c>
-      <c r="G105" t="s">
-        <v>542</v>
+      <c r="G105">
+        <v>4829</v>
       </c>
       <c r="H105">
         <v>116</v>
       </c>
-      <c r="I105" t="s">
-        <v>663</v>
+      <c r="I105">
+        <v>4459</v>
       </c>
       <c r="J105">
         <v>96</v>
       </c>
-      <c r="K105" t="s">
-        <v>41</v>
+      <c r="K105">
+        <v>4963</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>780</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2">
         <v>107</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>155</v>
+      <c r="C106" s="2">
+        <v>4719</v>
       </c>
       <c r="D106" s="2">
         <v>112</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>302</v>
+      <c r="E106" s="2">
+        <v>4586</v>
       </c>
       <c r="F106">
         <v>109</v>
       </c>
-      <c r="G106" t="s">
-        <v>433</v>
+      <c r="G106">
+        <v>4644</v>
       </c>
       <c r="H106">
         <v>109</v>
       </c>
-      <c r="I106" t="s">
-        <v>556</v>
+      <c r="I106">
+        <v>4655</v>
       </c>
       <c r="J106">
         <v>62</v>
       </c>
-      <c r="K106" t="s">
-        <v>12</v>
+      <c r="K106">
+        <v>5550</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>781</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2">
         <v>108</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>285</v>
+      <c r="C107" s="2">
+        <v>4707</v>
       </c>
       <c r="D107" s="2">
         <v>102</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>417</v>
+      <c r="E107" s="2">
+        <v>4806</v>
       </c>
       <c r="F107">
         <v>82</v>
       </c>
-      <c r="G107" t="s">
-        <v>540</v>
+      <c r="G107">
+        <v>5250</v>
       </c>
       <c r="H107">
         <v>44</v>
       </c>
-      <c r="I107" t="s">
-        <v>505</v>
+      <c r="I107">
+        <v>6084</v>
       </c>
       <c r="J107">
         <v>20</v>
       </c>
-      <c r="K107" t="s">
-        <v>140</v>
+      <c r="K107">
+        <v>7039</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>782</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2">
         <v>109</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>110</v>
+      <c r="C108" s="2">
+        <v>4700</v>
       </c>
       <c r="D108" s="2">
         <v>120</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>351</v>
+      <c r="E108" s="2">
+        <v>4433</v>
       </c>
       <c r="F108">
         <v>129</v>
       </c>
-      <c r="G108" t="s">
-        <v>487</v>
+      <c r="G108">
+        <v>4168</v>
       </c>
       <c r="H108">
         <v>140</v>
       </c>
-      <c r="I108" t="s">
-        <v>605</v>
+      <c r="I108">
+        <v>3907</v>
       </c>
       <c r="J108">
         <v>140</v>
       </c>
-      <c r="K108" t="s">
-        <v>70</v>
+      <c r="K108">
+        <v>4067</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>783</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2">
         <v>110</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>252</v>
+      <c r="C109" s="2">
+        <v>4696</v>
       </c>
       <c r="D109" s="2">
         <v>104</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>390</v>
+      <c r="E109" s="2">
+        <v>4743</v>
       </c>
       <c r="F109">
         <v>103</v>
       </c>
-      <c r="G109" t="s">
-        <v>58</v>
+      <c r="G109">
+        <v>4775</v>
       </c>
       <c r="H109">
         <v>108</v>
       </c>
-      <c r="I109" t="s">
-        <v>636</v>
+      <c r="I109">
+        <v>4754</v>
       </c>
       <c r="J109">
         <v>113</v>
       </c>
-      <c r="K109" t="s">
-        <v>110</v>
+      <c r="K109">
+        <v>4700</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>784</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2">
         <v>111</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>265</v>
+      <c r="C110" s="2">
+        <v>4681</v>
       </c>
       <c r="D110" s="2">
         <v>109</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>401</v>
+      <c r="E110" s="2">
+        <v>4631</v>
       </c>
       <c r="F110">
         <v>115</v>
       </c>
-      <c r="G110" t="s">
-        <v>525</v>
+      <c r="G110">
+        <v>4535</v>
       </c>
       <c r="H110">
         <v>128</v>
       </c>
-      <c r="I110" t="s">
-        <v>647</v>
+      <c r="I110">
+        <v>4219</v>
       </c>
       <c r="J110">
         <v>147</v>
       </c>
-      <c r="K110" t="s">
-        <v>122</v>
+      <c r="K110">
+        <v>3959</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>785</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2">
         <v>112</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>266</v>
+      <c r="C111" s="2">
+        <v>4668</v>
       </c>
       <c r="D111" s="2">
         <v>98</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>402</v>
+      <c r="E111" s="2">
+        <v>4982</v>
       </c>
       <c r="F111">
         <v>93</v>
       </c>
-      <c r="G111" t="s">
-        <v>526</v>
+      <c r="G111">
+        <v>5151</v>
       </c>
       <c r="H111">
         <v>76</v>
       </c>
-      <c r="I111" t="s">
-        <v>648</v>
+      <c r="I111">
+        <v>5440</v>
       </c>
       <c r="J111" t="e">
         <v>#N/A</v>
@@ -6805,31 +4815,31 @@
     </row>
     <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>786</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2">
         <v>113</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>239</v>
+      <c r="C112" s="2">
+        <v>4639</v>
       </c>
       <c r="D112" s="2">
         <v>119</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>378</v>
+      <c r="E112" s="2">
+        <v>4441</v>
       </c>
       <c r="F112">
         <v>111</v>
       </c>
-      <c r="G112" t="s">
-        <v>87</v>
+      <c r="G112">
+        <v>4574</v>
       </c>
       <c r="H112">
         <v>113</v>
       </c>
-      <c r="I112" t="s">
-        <v>87</v>
+      <c r="I112">
+        <v>4574</v>
       </c>
       <c r="J112" t="e">
         <v>#N/A</v>
@@ -6840,223 +4850,223 @@
     </row>
     <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>787</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2">
         <v>114</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>240</v>
+      <c r="C113" s="2">
+        <v>4628</v>
       </c>
       <c r="D113" s="2">
         <v>134</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>189</v>
+      <c r="E113" s="2">
+        <v>4166</v>
       </c>
       <c r="F113">
         <v>135</v>
       </c>
-      <c r="G113" t="s">
-        <v>507</v>
+      <c r="G113">
+        <v>4028</v>
       </c>
       <c r="H113">
         <v>142</v>
       </c>
-      <c r="I113" t="s">
-        <v>626</v>
+      <c r="I113">
+        <v>3856</v>
       </c>
       <c r="J113">
         <v>136</v>
       </c>
-      <c r="K113" t="s">
-        <v>98</v>
+      <c r="K113">
+        <v>4152</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>788</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2">
         <v>115</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>164</v>
+      <c r="C114" s="2">
+        <v>4587</v>
       </c>
       <c r="D114" s="2">
         <v>121</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>310</v>
+      <c r="E114" s="2">
+        <v>4424</v>
       </c>
       <c r="F114">
         <v>134</v>
       </c>
-      <c r="G114" t="s">
-        <v>442</v>
+      <c r="G114">
+        <v>4032</v>
       </c>
       <c r="H114">
         <v>145</v>
       </c>
-      <c r="I114" t="s">
-        <v>563</v>
+      <c r="I114">
+        <v>3739</v>
       </c>
       <c r="J114">
         <v>131</v>
       </c>
-      <c r="K114" t="s">
-        <v>21</v>
+      <c r="K114">
+        <v>4259</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>789</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2">
         <v>116</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>156</v>
+      <c r="C115" s="2">
+        <v>4559</v>
       </c>
       <c r="D115" s="2">
         <v>129</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>303</v>
+      <c r="E115" s="2">
+        <v>4321</v>
       </c>
       <c r="F115">
         <v>121</v>
       </c>
-      <c r="G115" t="s">
-        <v>434</v>
+      <c r="G115">
+        <v>4376</v>
       </c>
       <c r="H115">
         <v>121</v>
       </c>
-      <c r="I115" t="s">
-        <v>230</v>
+      <c r="I115">
+        <v>4360</v>
       </c>
       <c r="J115">
         <v>128</v>
       </c>
-      <c r="K115" t="s">
-        <v>13</v>
+      <c r="K115">
+        <v>4316</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>790</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2">
         <v>117</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>209</v>
+      <c r="C116" s="2">
+        <v>4548</v>
       </c>
       <c r="D116" s="2">
         <v>106</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>285</v>
+      <c r="E116" s="2">
+        <v>4707</v>
       </c>
       <c r="F116">
         <v>108</v>
       </c>
-      <c r="G116" t="s">
-        <v>481</v>
+      <c r="G116">
+        <v>4692</v>
       </c>
       <c r="H116">
         <v>105</v>
       </c>
-      <c r="I116" t="s">
-        <v>18</v>
+      <c r="I116">
+        <v>4813</v>
       </c>
       <c r="J116">
         <v>115</v>
       </c>
-      <c r="K116" t="s">
-        <v>64</v>
+      <c r="K116">
+        <v>4643</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>791</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2">
         <v>118</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>196</v>
+      <c r="C117" s="2">
+        <v>4534</v>
       </c>
       <c r="D117" s="2">
         <v>140</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>337</v>
+      <c r="E117" s="2">
+        <v>3964</v>
       </c>
       <c r="F117">
         <v>149</v>
       </c>
-      <c r="G117" t="s">
-        <v>470</v>
+      <c r="G117">
+        <v>3507</v>
       </c>
       <c r="H117">
         <v>151</v>
       </c>
-      <c r="I117" t="s">
-        <v>591</v>
+      <c r="I117">
+        <v>3607</v>
       </c>
       <c r="J117">
         <v>150</v>
       </c>
-      <c r="K117" t="s">
-        <v>51</v>
+      <c r="K117">
+        <v>3847</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>792</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2">
         <v>119</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>193</v>
+      <c r="C118" s="2">
+        <v>4519</v>
       </c>
       <c r="D118" s="2">
         <v>128</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>335</v>
+      <c r="E118" s="2">
+        <v>4340</v>
       </c>
       <c r="F118">
         <v>125</v>
       </c>
-      <c r="G118" t="s">
-        <v>190</v>
+      <c r="G118">
+        <v>4286</v>
       </c>
       <c r="H118">
         <v>126</v>
       </c>
-      <c r="I118" t="s">
-        <v>589</v>
+      <c r="I118">
+        <v>4252</v>
       </c>
       <c r="J118">
         <v>134</v>
       </c>
-      <c r="K118" t="s">
-        <v>49</v>
+      <c r="K118">
+        <v>4187</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>793</v>
+        <v>128</v>
       </c>
       <c r="B119" s="2">
         <v>120</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>195</v>
+      <c r="C119" s="2">
+        <v>4516</v>
       </c>
       <c r="D119" s="2" t="e">
         <v>#N/A</v>
@@ -7085,95 +5095,95 @@
     </row>
     <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>794</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2">
         <v>121</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>213</v>
+      <c r="C120" s="2">
+        <v>4509</v>
       </c>
       <c r="D120" s="2">
         <v>124</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>349</v>
+      <c r="E120" s="2">
+        <v>4410</v>
       </c>
       <c r="F120">
         <v>112</v>
       </c>
-      <c r="G120" t="s">
-        <v>485</v>
+      <c r="G120">
+        <v>4553</v>
       </c>
       <c r="H120">
         <v>122</v>
       </c>
-      <c r="I120" t="s">
-        <v>372</v>
+      <c r="I120">
+        <v>4356</v>
       </c>
       <c r="J120">
         <v>123</v>
       </c>
-      <c r="K120" t="s">
-        <v>68</v>
+      <c r="K120">
+        <v>4403</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>795</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2">
         <v>122</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>232</v>
+      <c r="C121" s="2">
+        <v>4490</v>
       </c>
       <c r="D121" s="2">
         <v>126</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>372</v>
+      <c r="E121" s="2">
+        <v>4356</v>
       </c>
       <c r="F121">
         <v>123</v>
       </c>
-      <c r="G121" t="s">
-        <v>501</v>
+      <c r="G121">
+        <v>4292</v>
       </c>
       <c r="H121">
         <v>130</v>
       </c>
-      <c r="I121" t="s">
-        <v>623</v>
+      <c r="I121">
+        <v>4201</v>
       </c>
       <c r="J121">
         <v>112</v>
       </c>
-      <c r="K121" t="s">
-        <v>91</v>
+      <c r="K121">
+        <v>4758</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>796</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2">
         <v>123</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>238</v>
+      <c r="C122" s="2">
+        <v>4466</v>
       </c>
       <c r="D122" s="2">
         <v>123</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>377</v>
+      <c r="E122" s="2">
+        <v>4417</v>
       </c>
       <c r="F122">
         <v>113</v>
       </c>
-      <c r="G122" t="s">
-        <v>506</v>
+      <c r="G122">
+        <v>4550</v>
       </c>
       <c r="H122" t="e">
         <v>#N/A</v>
@@ -7184,142 +5194,142 @@
       <c r="J122">
         <v>94</v>
       </c>
-      <c r="K122" t="s">
-        <v>97</v>
+      <c r="K122">
+        <v>4971</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>797</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2">
         <v>124</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>276</v>
+      <c r="C123" s="2">
+        <v>4461</v>
       </c>
       <c r="D123" s="2">
         <v>111</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>410</v>
+      <c r="E123" s="2">
+        <v>4592</v>
       </c>
       <c r="F123">
         <v>102</v>
       </c>
-      <c r="G123" t="s">
-        <v>532</v>
+      <c r="G123">
+        <v>4805</v>
       </c>
       <c r="H123">
         <v>98</v>
       </c>
-      <c r="I123" t="s">
-        <v>655</v>
+      <c r="I123">
+        <v>5045</v>
       </c>
       <c r="J123">
         <v>104</v>
       </c>
-      <c r="K123" t="s">
-        <v>131</v>
+      <c r="K123">
+        <v>4826</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>798</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2">
         <v>125</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>162</v>
+      <c r="C124" s="2">
+        <v>4456</v>
       </c>
       <c r="D124" s="2">
         <v>115</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>308</v>
+      <c r="E124" s="2">
+        <v>4500</v>
       </c>
       <c r="F124">
         <v>110</v>
       </c>
-      <c r="G124" t="s">
-        <v>440</v>
+      <c r="G124">
+        <v>4608</v>
       </c>
       <c r="H124">
         <v>110</v>
       </c>
-      <c r="I124" t="s">
-        <v>64</v>
+      <c r="I124">
+        <v>4643</v>
       </c>
       <c r="J124">
         <v>108</v>
       </c>
-      <c r="K124" t="s">
-        <v>19</v>
+      <c r="K124">
+        <v>4804</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>799</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2">
         <v>126</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>208</v>
+      <c r="C125" s="2">
+        <v>4437</v>
       </c>
       <c r="D125" s="2">
         <v>117</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>162</v>
+      <c r="E125" s="2">
+        <v>4456</v>
       </c>
       <c r="F125">
         <v>117</v>
       </c>
-      <c r="G125" t="s">
-        <v>480</v>
+      <c r="G125">
+        <v>4497</v>
       </c>
       <c r="H125">
         <v>112</v>
       </c>
-      <c r="I125" t="s">
-        <v>601</v>
+      <c r="I125">
+        <v>4575</v>
       </c>
       <c r="J125">
         <v>105</v>
       </c>
-      <c r="K125" t="s">
-        <v>63</v>
+      <c r="K125">
+        <v>4817</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>800</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2">
         <v>127</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>174</v>
+      <c r="C126" s="2">
+        <v>4418</v>
       </c>
       <c r="D126" s="2">
         <v>132</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>319</v>
+      <c r="E126" s="2">
+        <v>4245</v>
       </c>
       <c r="F126">
         <v>126</v>
       </c>
-      <c r="G126" t="s">
-        <v>451</v>
+      <c r="G126">
+        <v>4280</v>
       </c>
       <c r="H126">
         <v>125</v>
       </c>
-      <c r="I126" t="s">
-        <v>572</v>
+      <c r="I126">
+        <v>4272</v>
       </c>
       <c r="J126" t="e">
         <v>#N/A</v>
@@ -7330,258 +5340,258 @@
     </row>
     <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>801</v>
+        <v>136</v>
       </c>
       <c r="B127" s="2">
         <v>128</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>229</v>
+      <c r="C127" s="2">
+        <v>4390</v>
       </c>
       <c r="D127" s="2">
         <v>118</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>369</v>
+      <c r="E127" s="2">
+        <v>4447</v>
       </c>
       <c r="F127">
         <v>127</v>
       </c>
-      <c r="G127" t="s">
-        <v>346</v>
+      <c r="G127">
+        <v>4190</v>
       </c>
       <c r="H127">
         <v>135</v>
       </c>
-      <c r="I127" t="s">
-        <v>620</v>
+      <c r="I127">
+        <v>4073</v>
       </c>
       <c r="J127">
         <v>132</v>
       </c>
-      <c r="K127" t="s">
-        <v>88</v>
+      <c r="K127">
+        <v>4247</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>802</v>
+        <v>137</v>
       </c>
       <c r="B128" s="2">
         <v>129</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>264</v>
+      <c r="C128" s="2">
+        <v>4374</v>
       </c>
       <c r="D128" s="2">
         <v>113</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>400</v>
+      <c r="E128" s="2">
+        <v>4571</v>
       </c>
       <c r="F128">
         <v>106</v>
       </c>
-      <c r="G128" t="s">
-        <v>524</v>
+      <c r="G128">
+        <v>4709</v>
       </c>
       <c r="H128">
         <v>111</v>
       </c>
-      <c r="I128" t="s">
-        <v>646</v>
+      <c r="I128">
+        <v>4635</v>
       </c>
       <c r="J128">
         <v>127</v>
       </c>
-      <c r="K128" t="s">
-        <v>121</v>
+      <c r="K128">
+        <v>4318</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>803</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2">
         <v>130</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>219</v>
+      <c r="C129" s="2">
+        <v>4366</v>
       </c>
       <c r="D129" s="2">
         <v>116</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>357</v>
+      <c r="E129" s="2">
+        <v>4471</v>
       </c>
       <c r="F129">
         <v>120</v>
       </c>
-      <c r="G129" t="s">
-        <v>491</v>
+      <c r="G129">
+        <v>4440</v>
       </c>
       <c r="H129">
         <v>117</v>
       </c>
-      <c r="I129" t="s">
-        <v>611</v>
+      <c r="I129">
+        <v>4415</v>
       </c>
       <c r="J129">
         <v>137</v>
       </c>
-      <c r="K129" t="s">
-        <v>77</v>
+      <c r="K129">
+        <v>4151</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>804</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2">
         <v>131</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>230</v>
+      <c r="C130" s="2">
+        <v>4360</v>
       </c>
       <c r="D130" s="2">
         <v>130</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>370</v>
+      <c r="E130" s="2">
+        <v>4308</v>
       </c>
       <c r="F130">
         <v>114</v>
       </c>
-      <c r="G130" t="s">
-        <v>499</v>
+      <c r="G130">
+        <v>4545</v>
       </c>
       <c r="H130">
         <v>119</v>
       </c>
-      <c r="I130" t="s">
-        <v>621</v>
+      <c r="I130">
+        <v>4395</v>
       </c>
       <c r="J130">
         <v>121</v>
       </c>
-      <c r="K130" t="s">
-        <v>89</v>
+      <c r="K130">
+        <v>4439</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>805</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2">
         <v>132</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>271</v>
+      <c r="C131" s="2">
+        <v>4350</v>
       </c>
       <c r="D131" s="2">
         <v>131</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>405</v>
+      <c r="E131" s="2">
+        <v>4301</v>
       </c>
       <c r="F131">
         <v>137</v>
       </c>
-      <c r="G131" t="s">
-        <v>529</v>
+      <c r="G131">
+        <v>3936</v>
       </c>
       <c r="H131">
         <v>144</v>
       </c>
-      <c r="I131" t="s">
-        <v>652</v>
+      <c r="I131">
+        <v>3763</v>
       </c>
       <c r="J131">
         <v>141</v>
       </c>
-      <c r="K131" t="s">
-        <v>126</v>
+      <c r="K131">
+        <v>4056</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>806</v>
+        <v>141</v>
       </c>
       <c r="B132" s="2">
         <v>133</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>281</v>
+      <c r="C132" s="2">
+        <v>4332</v>
       </c>
       <c r="D132" s="2">
         <v>138</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>413</v>
+      <c r="E132" s="2">
+        <v>4103</v>
       </c>
       <c r="F132">
         <v>132</v>
       </c>
-      <c r="G132" t="s">
-        <v>537</v>
+      <c r="G132">
+        <v>4096</v>
       </c>
       <c r="H132">
         <v>123</v>
       </c>
-      <c r="I132" t="s">
-        <v>658</v>
+      <c r="I132">
+        <v>4324</v>
       </c>
       <c r="J132">
         <v>87</v>
       </c>
-      <c r="K132" t="s">
-        <v>136</v>
+      <c r="K132">
+        <v>5057</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>807</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2">
         <v>134</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>190</v>
+      <c r="C133" s="2">
+        <v>4286</v>
       </c>
       <c r="D133" s="2">
         <v>127</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>271</v>
+      <c r="E133" s="2">
+        <v>4350</v>
       </c>
       <c r="F133">
         <v>119</v>
       </c>
-      <c r="G133" t="s">
-        <v>466</v>
+      <c r="G133">
+        <v>4460</v>
       </c>
       <c r="H133">
         <v>115</v>
       </c>
-      <c r="I133" t="s">
-        <v>586</v>
+      <c r="I133">
+        <v>4508</v>
       </c>
       <c r="J133">
         <v>119</v>
       </c>
-      <c r="K133" t="s">
-        <v>46</v>
+      <c r="K133">
+        <v>4561</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>808</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2">
         <v>135</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>270</v>
+      <c r="C134" s="2">
+        <v>4212</v>
       </c>
       <c r="D134" s="2" t="e">
         <v>#N/A</v>
@@ -7604,229 +5614,229 @@
       <c r="J134">
         <v>100</v>
       </c>
-      <c r="K134" t="s">
-        <v>125</v>
+      <c r="K134">
+        <v>4867</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>809</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2">
         <v>136</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>282</v>
+      <c r="C135" s="2">
+        <v>4189</v>
       </c>
       <c r="D135" s="2">
         <v>135</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>414</v>
+      <c r="E135" s="2">
+        <v>4161</v>
       </c>
       <c r="F135">
         <v>133</v>
       </c>
-      <c r="G135" t="s">
-        <v>538</v>
+      <c r="G135">
+        <v>4081</v>
       </c>
       <c r="H135">
         <v>146</v>
       </c>
-      <c r="I135" t="s">
-        <v>563</v>
+      <c r="I135">
+        <v>3739</v>
       </c>
       <c r="J135">
         <v>120</v>
       </c>
-      <c r="K135" t="s">
-        <v>137</v>
+      <c r="K135">
+        <v>4443</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>810</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2">
         <v>137</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>189</v>
+      <c r="C136" s="2">
+        <v>4166</v>
       </c>
       <c r="D136" s="2">
         <v>122</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>333</v>
+      <c r="E136" s="2">
+        <v>4419</v>
       </c>
       <c r="F136">
         <v>104</v>
       </c>
-      <c r="G136" t="s">
-        <v>465</v>
+      <c r="G136">
+        <v>4735</v>
       </c>
       <c r="H136">
         <v>120</v>
       </c>
-      <c r="I136" t="s">
-        <v>585</v>
+      <c r="I136">
+        <v>4362</v>
       </c>
       <c r="J136">
         <v>130</v>
       </c>
-      <c r="K136" t="s">
-        <v>45</v>
+      <c r="K136">
+        <v>4273</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>811</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2">
         <v>138</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>289</v>
+      <c r="C137" s="2">
+        <v>4107</v>
       </c>
       <c r="D137" s="2">
         <v>125</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>421</v>
+      <c r="E137" s="2">
+        <v>4377</v>
       </c>
       <c r="F137">
         <v>116</v>
       </c>
-      <c r="G137" t="s">
-        <v>543</v>
+      <c r="G137">
+        <v>4514</v>
       </c>
       <c r="H137">
         <v>106</v>
       </c>
-      <c r="I137" t="s">
-        <v>664</v>
+      <c r="I137">
+        <v>4795</v>
       </c>
       <c r="J137">
         <v>91</v>
       </c>
-      <c r="K137" t="s">
-        <v>143</v>
+      <c r="K137">
+        <v>5006</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>812</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2">
         <v>139</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>272</v>
+      <c r="C138" s="2">
+        <v>4085</v>
       </c>
       <c r="D138" s="2">
         <v>139</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>406</v>
+      <c r="E138" s="2">
+        <v>3999</v>
       </c>
       <c r="F138">
         <v>150</v>
       </c>
-      <c r="G138" t="s">
-        <v>358</v>
+      <c r="G138">
+        <v>3495</v>
       </c>
       <c r="H138">
         <v>155</v>
       </c>
-      <c r="I138" t="s">
-        <v>412</v>
+      <c r="I138">
+        <v>3303</v>
       </c>
       <c r="J138">
         <v>156</v>
       </c>
-      <c r="K138" t="s">
-        <v>127</v>
+      <c r="K138">
+        <v>2936</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>813</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2">
         <v>140</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>207</v>
+      <c r="C139" s="2">
+        <v>4015</v>
       </c>
       <c r="D139" s="2">
         <v>133</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>346</v>
+      <c r="E139" s="2">
+        <v>4190</v>
       </c>
       <c r="F139">
         <v>122</v>
       </c>
-      <c r="G139" t="s">
-        <v>479</v>
+      <c r="G139">
+        <v>4315</v>
       </c>
       <c r="H139">
         <v>118</v>
       </c>
-      <c r="I139" t="s">
-        <v>600</v>
+      <c r="I139">
+        <v>4404</v>
       </c>
       <c r="J139">
         <v>111</v>
       </c>
-      <c r="K139" t="s">
-        <v>62</v>
+      <c r="K139">
+        <v>4772</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>814</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2">
         <v>141</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>220</v>
+      <c r="C140" s="2">
+        <v>3975</v>
       </c>
       <c r="D140" s="2">
         <v>149</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>358</v>
+      <c r="E140" s="2">
+        <v>3495</v>
       </c>
       <c r="F140">
         <v>148</v>
       </c>
-      <c r="G140" t="s">
-        <v>492</v>
+      <c r="G140">
+        <v>3533</v>
       </c>
       <c r="H140">
         <v>150</v>
       </c>
-      <c r="I140" t="s">
-        <v>612</v>
+      <c r="I140">
+        <v>3622</v>
       </c>
       <c r="J140">
         <v>133</v>
       </c>
-      <c r="K140" t="s">
-        <v>78</v>
+      <c r="K140">
+        <v>4196</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>815</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2">
         <v>142</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>215</v>
+      <c r="C141" s="2">
+        <v>3973</v>
       </c>
       <c r="D141" s="2" t="e">
         <v>#N/A</v>
@@ -7843,72 +5853,72 @@
       <c r="H141">
         <v>138</v>
       </c>
-      <c r="I141" t="s">
-        <v>606</v>
+      <c r="I141">
+        <v>3956</v>
       </c>
       <c r="J141">
         <v>149</v>
       </c>
-      <c r="K141" t="s">
-        <v>71</v>
+      <c r="K141">
+        <v>3851</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>816</v>
+        <v>151</v>
       </c>
       <c r="B142" s="2">
         <v>143</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>227</v>
+      <c r="C142" s="2">
+        <v>3933</v>
       </c>
       <c r="D142" s="2">
         <v>143</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>367</v>
+      <c r="E142" s="2">
+        <v>3774</v>
       </c>
       <c r="F142">
         <v>144</v>
       </c>
-      <c r="G142" t="s">
-        <v>498</v>
+      <c r="G142">
+        <v>3644</v>
       </c>
       <c r="H142">
         <v>148</v>
       </c>
-      <c r="I142" t="s">
-        <v>618</v>
+      <c r="I142">
+        <v>3695</v>
       </c>
       <c r="J142">
         <v>146</v>
       </c>
-      <c r="K142" t="s">
-        <v>86</v>
+      <c r="K142">
+        <v>3966</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>817</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2">
         <v>144</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>221</v>
+      <c r="C143" s="2">
+        <v>3802</v>
       </c>
       <c r="D143" s="2">
         <v>141</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>359</v>
+      <c r="E143" s="2">
+        <v>3808</v>
       </c>
       <c r="F143">
         <v>139</v>
       </c>
-      <c r="G143" t="s">
-        <v>359</v>
+      <c r="G143">
+        <v>3808</v>
       </c>
       <c r="H143" t="e">
         <v>#N/A</v>
@@ -7919,381 +5929,381 @@
       <c r="J143">
         <v>98</v>
       </c>
-      <c r="K143" t="s">
-        <v>79</v>
+      <c r="K143">
+        <v>4898</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>818</v>
+        <v>153</v>
       </c>
       <c r="B144" s="2">
         <v>145</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>167</v>
+      <c r="C144" s="2">
+        <v>3775</v>
       </c>
       <c r="D144" s="2">
         <v>156</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>312</v>
+      <c r="E144" s="2">
+        <v>2905</v>
       </c>
       <c r="F144">
         <v>154</v>
       </c>
-      <c r="G144" t="s">
-        <v>312</v>
+      <c r="G144">
+        <v>2905</v>
       </c>
       <c r="H144">
         <v>157</v>
       </c>
-      <c r="I144" t="s">
-        <v>312</v>
+      <c r="I144">
+        <v>2905</v>
       </c>
       <c r="J144">
         <v>153</v>
       </c>
-      <c r="K144" t="s">
-        <v>24</v>
+      <c r="K144">
+        <v>3706</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>819</v>
+        <v>154</v>
       </c>
       <c r="B145" s="2">
         <v>146</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>290</v>
+      <c r="C145" s="2">
+        <v>3663</v>
       </c>
       <c r="D145" s="2">
         <v>144</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>422</v>
+      <c r="E145" s="2">
+        <v>3692</v>
       </c>
       <c r="F145">
         <v>138</v>
       </c>
-      <c r="G145" t="s">
-        <v>544</v>
+      <c r="G145">
+        <v>3875</v>
       </c>
       <c r="H145">
         <v>131</v>
       </c>
-      <c r="I145" t="s">
-        <v>665</v>
+      <c r="I145">
+        <v>4193</v>
       </c>
       <c r="J145">
         <v>103</v>
       </c>
-      <c r="K145" t="s">
-        <v>144</v>
+      <c r="K145">
+        <v>4827</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>820</v>
+        <v>155</v>
       </c>
       <c r="B146" s="2">
         <v>147</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>202</v>
+      <c r="C146" s="2">
+        <v>3597</v>
       </c>
       <c r="D146" s="2">
         <v>148</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>341</v>
+      <c r="E146" s="2">
+        <v>3582</v>
       </c>
       <c r="F146">
         <v>145</v>
       </c>
-      <c r="G146" t="s">
-        <v>475</v>
+      <c r="G146">
+        <v>3603</v>
       </c>
       <c r="H146">
         <v>136</v>
       </c>
-      <c r="I146" t="s">
-        <v>507</v>
+      <c r="I146">
+        <v>4028</v>
       </c>
       <c r="J146">
         <v>126</v>
       </c>
-      <c r="K146" t="s">
-        <v>57</v>
+      <c r="K146">
+        <v>4341</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>821</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2">
         <v>148</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>171</v>
+      <c r="C147" s="2">
+        <v>3488</v>
       </c>
       <c r="D147" s="2">
         <v>146</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>316</v>
+      <c r="E147" s="2">
+        <v>3590</v>
       </c>
       <c r="F147">
         <v>142</v>
       </c>
-      <c r="G147" t="s">
-        <v>448</v>
+      <c r="G147">
+        <v>3766</v>
       </c>
       <c r="H147">
         <v>137</v>
       </c>
-      <c r="I147" t="s">
-        <v>569</v>
+      <c r="I147">
+        <v>3974</v>
       </c>
       <c r="J147">
         <v>145</v>
       </c>
-      <c r="K147" t="s">
-        <v>28</v>
+      <c r="K147">
+        <v>3970</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>822</v>
+        <v>157</v>
       </c>
       <c r="B148" s="2">
         <v>149</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>269</v>
+      <c r="C148" s="2">
+        <v>3462</v>
       </c>
       <c r="D148" s="2">
         <v>150</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>269</v>
+      <c r="E148" s="2">
+        <v>3462</v>
       </c>
       <c r="F148">
         <v>152</v>
       </c>
-      <c r="G148" t="s">
-        <v>269</v>
+      <c r="G148">
+        <v>3462</v>
       </c>
       <c r="H148">
         <v>156</v>
       </c>
-      <c r="I148" t="s">
-        <v>651</v>
+      <c r="I148">
+        <v>3069</v>
       </c>
       <c r="J148">
         <v>148</v>
       </c>
-      <c r="K148" t="s">
-        <v>124</v>
+      <c r="K148">
+        <v>3892</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>823</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2">
         <v>150</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>235</v>
+      <c r="C149" s="2">
+        <v>3410</v>
       </c>
       <c r="D149" s="2">
         <v>147</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>375</v>
+      <c r="E149" s="2">
+        <v>3587</v>
       </c>
       <c r="F149">
         <v>136</v>
       </c>
-      <c r="G149" t="s">
-        <v>28</v>
+      <c r="G149">
+        <v>3970</v>
       </c>
       <c r="H149">
         <v>132</v>
       </c>
-      <c r="I149" t="s">
-        <v>103</v>
+      <c r="I149">
+        <v>4156</v>
       </c>
       <c r="J149">
         <v>139</v>
       </c>
-      <c r="K149" t="s">
-        <v>94</v>
+      <c r="K149">
+        <v>4113</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>824</v>
+        <v>159</v>
       </c>
       <c r="B150" s="2">
         <v>151</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>287</v>
+      <c r="C150" s="2">
+        <v>3380</v>
       </c>
       <c r="D150" s="2">
         <v>152</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>419</v>
+      <c r="E150" s="2">
+        <v>3355</v>
       </c>
       <c r="F150">
         <v>146</v>
       </c>
-      <c r="G150" t="s">
-        <v>541</v>
+      <c r="G150">
+        <v>3593</v>
       </c>
       <c r="H150">
         <v>147</v>
       </c>
-      <c r="I150" t="s">
-        <v>662</v>
+      <c r="I150">
+        <v>3724</v>
       </c>
       <c r="J150">
         <v>142</v>
       </c>
-      <c r="K150" t="s">
-        <v>142</v>
+      <c r="K150">
+        <v>4054</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>825</v>
+        <v>160</v>
       </c>
       <c r="B151" s="2">
         <v>152</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>258</v>
+      <c r="C151" s="2">
+        <v>3334</v>
       </c>
       <c r="D151" s="2">
         <v>151</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>395</v>
+      <c r="E151" s="2">
+        <v>3408</v>
       </c>
       <c r="F151">
         <v>151</v>
       </c>
-      <c r="G151" t="s">
-        <v>520</v>
+      <c r="G151">
+        <v>3471</v>
       </c>
       <c r="H151">
         <v>152</v>
       </c>
-      <c r="I151" t="s">
-        <v>641</v>
+      <c r="I151">
+        <v>3515</v>
       </c>
       <c r="J151">
         <v>152</v>
       </c>
-      <c r="K151" t="s">
-        <v>115</v>
+      <c r="K151">
+        <v>3715</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>826</v>
+        <v>161</v>
       </c>
       <c r="B152" s="2">
         <v>153</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>280</v>
+      <c r="C152" s="2">
+        <v>3231</v>
       </c>
       <c r="D152" s="2">
         <v>153</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>412</v>
+      <c r="E152" s="2">
+        <v>3303</v>
       </c>
       <c r="F152">
         <v>153</v>
       </c>
-      <c r="G152" t="s">
-        <v>536</v>
+      <c r="G152">
+        <v>3349</v>
       </c>
       <c r="H152">
         <v>149</v>
       </c>
-      <c r="I152" t="s">
-        <v>657</v>
+      <c r="I152">
+        <v>3666</v>
       </c>
       <c r="J152">
         <v>151</v>
       </c>
-      <c r="K152" t="s">
-        <v>135</v>
+      <c r="K152">
+        <v>3770</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>827</v>
+        <v>162</v>
       </c>
       <c r="B153" s="2">
         <v>154</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>154</v>
+      <c r="C153" s="2">
+        <v>3203</v>
       </c>
       <c r="D153" s="2">
         <v>145</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>301</v>
+      <c r="E153" s="2">
+        <v>3632</v>
       </c>
       <c r="F153">
         <v>141</v>
       </c>
-      <c r="G153" t="s">
-        <v>432</v>
+      <c r="G153">
+        <v>3794</v>
       </c>
       <c r="H153">
         <v>154</v>
       </c>
-      <c r="I153" t="s">
-        <v>555</v>
+      <c r="I153">
+        <v>3360</v>
       </c>
       <c r="J153">
         <v>143</v>
       </c>
-      <c r="K153" t="s">
-        <v>11</v>
+      <c r="K153">
+        <v>4040</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>828</v>
+        <v>163</v>
       </c>
       <c r="B154" s="2">
         <v>155</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>175</v>
+      <c r="C154" s="2">
+        <v>3083</v>
       </c>
       <c r="D154" s="2">
         <v>155</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>175</v>
+      <c r="E154" s="2">
+        <v>3083</v>
       </c>
       <c r="F154">
         <v>155</v>
       </c>
-      <c r="G154" t="s">
-        <v>452</v>
+      <c r="G154">
+        <v>2693</v>
       </c>
       <c r="H154" t="e">
         <v>#N/A</v>
@@ -8304,37 +6314,37 @@
       <c r="J154">
         <v>154</v>
       </c>
-      <c r="K154" t="s">
-        <v>31</v>
+      <c r="K154">
+        <v>3623</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>829</v>
+        <v>164</v>
       </c>
       <c r="B155" s="2">
         <v>156</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>267</v>
+      <c r="C155" s="2">
+        <v>2853</v>
       </c>
       <c r="D155" s="2">
         <v>154</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>403</v>
+      <c r="E155" s="2">
+        <v>3254</v>
       </c>
       <c r="F155">
         <v>147</v>
       </c>
-      <c r="G155" t="s">
-        <v>527</v>
+      <c r="G155">
+        <v>3591</v>
       </c>
       <c r="H155">
         <v>143</v>
       </c>
-      <c r="I155" t="s">
-        <v>649</v>
+      <c r="I155">
+        <v>3832</v>
       </c>
       <c r="J155" t="e">
         <v>#N/A</v>
@@ -8344,6 +6354,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K155" xr:uid="{CD4ED39B-F9F4-43AF-81AD-A0A2FA1FAA16}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E155">
     <sortCondition ref="B2:B155"/>
   </sortState>
